--- a/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
+++ b/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A93DFFE-3FE9-4248-B467-E7278AB6D733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1B76A-0AAA-4AB6-9781-282BF75DC0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
   </bookViews>
@@ -475,9 +475,6 @@
 TUBERKULOSIS PARU DI WILAYAH KERJA PUSKESMAS BATU 10 TANJUNGPINANG</t>
   </si>
   <si>
-    <t>ANALISIS FAKTOR-FAKTOR RASIKO HIPERTENSI PADA CALON JEMAAH HAJI KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
     <t>Hubungan Frekuensi Open Suction Terhadap Kejadian Ventilator Associated Pneumonia (VAP) Di Ruang ICU Rumkital dr. Midiyato Suratani Tanjungpinang</t>
   </si>
   <si>
@@ -590,6 +587,9 @@
 TINGKAT KESADARAN PADA PASIEN STROKE 
 RUANG ICU RSUD KOTA 
 TANJUNGPINANG</t>
+  </si>
+  <si>
+    <t>ANALISIS FAKTOR-FAKTOR RESIKO HIPERTENSI PADA CALON JEMAAH HAJI KOTA TANJUNGPINANG</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -731,39 +731,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,10 +800,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,12 +813,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,10 +1140,10 @@
   <dimension ref="A1:DX41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:J3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,219 +1186,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="24" t="s">
+      <c r="H1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="24" t="s">
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24" t="s">
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24" t="s">
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24" t="s">
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24" t="s">
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="26" t="s">
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="24" t="s">
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24" t="s">
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="23"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24" t="s">
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="23"/>
+      <c r="CE1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="26" t="s">
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
+      <c r="CH1" s="23"/>
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="CK1" s="26"/>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="24" t="s">
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24"/>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24" t="s">
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="CU1" s="24"/>
-      <c r="CV1" s="24"/>
-      <c r="CW1" s="24"/>
-      <c r="CX1" s="24"/>
-      <c r="CY1" s="24" t="s">
+      <c r="CU1" s="23"/>
+      <c r="CV1" s="23"/>
+      <c r="CW1" s="23"/>
+      <c r="CX1" s="23"/>
+      <c r="CY1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="CZ1" s="24"/>
-      <c r="DA1" s="24"/>
-      <c r="DB1" s="24"/>
-      <c r="DC1" s="24"/>
-      <c r="DD1" s="24" t="s">
+      <c r="CZ1" s="23"/>
+      <c r="DA1" s="23"/>
+      <c r="DB1" s="23"/>
+      <c r="DC1" s="23"/>
+      <c r="DD1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="DE1" s="24"/>
-      <c r="DF1" s="24"/>
-      <c r="DG1" s="24"/>
-      <c r="DH1" s="24"/>
-      <c r="DI1" s="24" t="s">
+      <c r="DE1" s="23"/>
+      <c r="DF1" s="23"/>
+      <c r="DG1" s="23"/>
+      <c r="DH1" s="23"/>
+      <c r="DI1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="DJ1" s="24"/>
-      <c r="DK1" s="24"/>
-      <c r="DL1" s="24"/>
-      <c r="DM1" s="24"/>
-      <c r="DN1" s="28" t="s">
+      <c r="DJ1" s="23"/>
+      <c r="DK1" s="23"/>
+      <c r="DL1" s="23"/>
+      <c r="DM1" s="23"/>
+      <c r="DN1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="DO1" s="29"/>
-      <c r="DP1" s="25" t="s">
+      <c r="DO1" s="23"/>
+      <c r="DP1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="DQ1" s="25"/>
-      <c r="DR1" s="25" t="s">
+      <c r="DQ1" s="24"/>
+      <c r="DR1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="DS1" s="25" t="s">
+      <c r="DS1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="DT1" s="24" t="s">
+      <c r="DT1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="DU1" s="24" t="s">
+      <c r="DU1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="DV1" s="25" t="s">
+      <c r="DV1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="DW1" s="25" t="s">
+      <c r="DW1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="DX1" s="25" t="s">
+      <c r="DX1" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1776,13 +1741,13 @@
       <c r="DQ2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="DR2" s="25"/>
-      <c r="DS2" s="25"/>
-      <c r="DT2" s="24"/>
-      <c r="DU2" s="24"/>
-      <c r="DV2" s="25"/>
-      <c r="DW2" s="25"/>
-      <c r="DX2" s="25"/>
+      <c r="DR2" s="24"/>
+      <c r="DS2" s="24"/>
+      <c r="DT2" s="23"/>
+      <c r="DU2" s="23"/>
+      <c r="DV2" s="24"/>
+      <c r="DW2" s="24"/>
+      <c r="DX2" s="24"/>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2681,7 +2646,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX4" s="12" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -3131,7 +3096,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -3581,7 +3546,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX6" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -4031,7 +3996,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX7" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -4481,7 +4446,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX8" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -4931,7 +4896,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -5381,7 +5346,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX10" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
@@ -5831,7 +5796,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX11" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
@@ -6281,7 +6246,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX12" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
@@ -6731,7 +6696,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
@@ -7181,7 +7146,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX14" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -7631,7 +7596,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX15" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -8081,7 +8046,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX16" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
@@ -8531,7 +8496,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
@@ -8981,7 +8946,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX18" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
@@ -9431,7 +9396,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -9881,7 +9846,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX20" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
@@ -10331,7 +10296,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX21" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
@@ -10781,7 +10746,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX22" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -11231,7 +11196,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX23" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -11681,7 +11646,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX24" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
@@ -12131,7 +12096,7 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX25" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -12581,7 +12546,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX26" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -13031,7 +12996,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX27" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -13481,7 +13446,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX28" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -13931,7 +13896,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX29" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
@@ -14381,7 +14346,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX30" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -14831,7 +14796,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX31" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -15281,7 +15246,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX32" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
@@ -15731,7 +15696,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX33" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -16181,7 +16146,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX34" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
@@ -16631,7 +16596,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX35" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:128" ht="30" x14ac:dyDescent="0.25">
@@ -17081,7 +17046,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX36" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
@@ -17531,7 +17496,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX37" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
@@ -17981,7 +17946,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX38" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -18426,7 +18391,7 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX39" s="23"/>
+      <c r="DX39" s="12"/>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -18875,7 +18840,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX40" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
@@ -19325,7 +19290,7 @@
         <v>Excellent</v>
       </c>
       <c r="DX41" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
+++ b/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1B76A-0AAA-4AB6-9781-282BF75DC0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443D63D-53DC-4416-BB9B-3138851AD2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
+    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -737,7 +737,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,13 +800,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,6 +814,18 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1140,265 +1146,265 @@
   <dimension ref="A1:DX41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="CE20" sqref="CE20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
-    <col min="19" max="21" width="5.7109375" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" customWidth="1"/>
-    <col min="29" max="31" width="5.7109375" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.85546875" customWidth="1"/>
-    <col min="34" max="36" width="5.7109375" customWidth="1"/>
-    <col min="37" max="37" width="6.28515625" customWidth="1"/>
-    <col min="38" max="38" width="8.28515625" customWidth="1"/>
-    <col min="39" max="42" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.265625" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" customWidth="1"/>
+    <col min="5" max="5" width="21.73046875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" customWidth="1"/>
+    <col min="7" max="7" width="24.86328125" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" customWidth="1"/>
+    <col min="9" max="10" width="5.73046875" customWidth="1"/>
+    <col min="11" max="11" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.86328125" customWidth="1"/>
+    <col min="14" max="16" width="5.73046875" customWidth="1"/>
+    <col min="17" max="17" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" customWidth="1"/>
+    <col min="19" max="21" width="5.73046875" customWidth="1"/>
+    <col min="22" max="22" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.73046875" customWidth="1"/>
+    <col min="24" max="27" width="5.73046875" customWidth="1"/>
+    <col min="28" max="28" width="9.265625" customWidth="1"/>
+    <col min="29" max="31" width="5.73046875" customWidth="1"/>
+    <col min="32" max="32" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.86328125" customWidth="1"/>
+    <col min="34" max="36" width="5.73046875" customWidth="1"/>
+    <col min="37" max="37" width="6.265625" customWidth="1"/>
+    <col min="38" max="38" width="8.265625" customWidth="1"/>
+    <col min="39" max="42" width="5.73046875" customWidth="1"/>
     <col min="43" max="43" width="8" customWidth="1"/>
-    <col min="44" max="47" width="5.7109375" customWidth="1"/>
-    <col min="48" max="48" width="8.28515625" customWidth="1"/>
-    <col min="49" max="66" width="5.7109375" customWidth="1"/>
+    <col min="44" max="47" width="5.73046875" customWidth="1"/>
+    <col min="48" max="48" width="8.265625" customWidth="1"/>
+    <col min="49" max="66" width="5.73046875" customWidth="1"/>
     <col min="67" max="68" width="8" customWidth="1"/>
-    <col min="70" max="70" width="6.7109375" customWidth="1"/>
-    <col min="126" max="127" width="18.42578125" customWidth="1"/>
-    <col min="128" max="128" width="18.140625" customWidth="1"/>
+    <col min="70" max="70" width="6.73046875" customWidth="1"/>
+    <col min="126" max="127" width="18.3984375" customWidth="1"/>
+    <col min="128" max="128" width="255" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="23" t="s">
+      <c r="H1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="23" t="s">
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23" t="s">
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23" t="s">
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23" t="s">
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23" t="s">
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="25" t="s">
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="26" t="s">
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="23" t="s">
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="23"/>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23" t="s">
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="23"/>
-      <c r="CC1" s="23"/>
-      <c r="CD1" s="23"/>
-      <c r="CE1" s="23" t="s">
+      <c r="CA1" s="22"/>
+      <c r="CB1" s="22"/>
+      <c r="CC1" s="22"/>
+      <c r="CD1" s="22"/>
+      <c r="CE1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="CF1" s="23"/>
-      <c r="CG1" s="23"/>
-      <c r="CH1" s="23"/>
-      <c r="CI1" s="23"/>
-      <c r="CJ1" s="25" t="s">
+      <c r="CF1" s="22"/>
+      <c r="CG1" s="22"/>
+      <c r="CH1" s="22"/>
+      <c r="CI1" s="22"/>
+      <c r="CJ1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="CK1" s="25"/>
-      <c r="CL1" s="25"/>
-      <c r="CM1" s="25"/>
-      <c r="CN1" s="25"/>
-      <c r="CO1" s="23" t="s">
+      <c r="CK1" s="23"/>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="CP1" s="23"/>
-      <c r="CQ1" s="23"/>
-      <c r="CR1" s="23"/>
-      <c r="CS1" s="23"/>
-      <c r="CT1" s="23" t="s">
+      <c r="CP1" s="22"/>
+      <c r="CQ1" s="22"/>
+      <c r="CR1" s="22"/>
+      <c r="CS1" s="22"/>
+      <c r="CT1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="CU1" s="23"/>
-      <c r="CV1" s="23"/>
-      <c r="CW1" s="23"/>
-      <c r="CX1" s="23"/>
-      <c r="CY1" s="23" t="s">
+      <c r="CU1" s="22"/>
+      <c r="CV1" s="22"/>
+      <c r="CW1" s="22"/>
+      <c r="CX1" s="22"/>
+      <c r="CY1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="CZ1" s="23"/>
-      <c r="DA1" s="23"/>
-      <c r="DB1" s="23"/>
-      <c r="DC1" s="23"/>
-      <c r="DD1" s="23" t="s">
+      <c r="CZ1" s="22"/>
+      <c r="DA1" s="22"/>
+      <c r="DB1" s="22"/>
+      <c r="DC1" s="22"/>
+      <c r="DD1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="DE1" s="23"/>
-      <c r="DF1" s="23"/>
-      <c r="DG1" s="23"/>
-      <c r="DH1" s="23"/>
-      <c r="DI1" s="23" t="s">
+      <c r="DE1" s="22"/>
+      <c r="DF1" s="22"/>
+      <c r="DG1" s="22"/>
+      <c r="DH1" s="22"/>
+      <c r="DI1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="DJ1" s="23"/>
-      <c r="DK1" s="23"/>
-      <c r="DL1" s="23"/>
-      <c r="DM1" s="23"/>
-      <c r="DN1" s="23" t="s">
+      <c r="DJ1" s="22"/>
+      <c r="DK1" s="22"/>
+      <c r="DL1" s="22"/>
+      <c r="DM1" s="22"/>
+      <c r="DN1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="DO1" s="23"/>
-      <c r="DP1" s="24" t="s">
+      <c r="DO1" s="22"/>
+      <c r="DP1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="DQ1" s="24"/>
-      <c r="DR1" s="24" t="s">
+      <c r="DQ1" s="27"/>
+      <c r="DR1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="DS1" s="24" t="s">
+      <c r="DS1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="DT1" s="23" t="s">
+      <c r="DT1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="DU1" s="23" t="s">
+      <c r="DU1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="DV1" s="24" t="s">
+      <c r="DV1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="DW1" s="24" t="s">
+      <c r="DW1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="DX1" s="24" t="s">
+      <c r="DX1" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+    <row r="2" spans="1:128" x14ac:dyDescent="0.45">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1741,15 +1747,15 @@
       <c r="DQ2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="DR2" s="24"/>
-      <c r="DS2" s="24"/>
-      <c r="DT2" s="23"/>
-      <c r="DU2" s="23"/>
-      <c r="DV2" s="24"/>
-      <c r="DW2" s="24"/>
-      <c r="DX2" s="24"/>
+      <c r="DR2" s="27"/>
+      <c r="DS2" s="27"/>
+      <c r="DT2" s="22"/>
+      <c r="DU2" s="22"/>
+      <c r="DV2" s="27"/>
+      <c r="DW2" s="27"/>
+      <c r="DX2" s="27"/>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2195,11 +2201,11 @@
         <f>IF(DU3&gt;=3.51,"Excellent",(IF(DU3&gt;=2.75,"Highly Satisfactory",(IF(DU3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX3" s="12" t="s">
+      <c r="DX3" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2645,11 +2651,11 @@
         <f t="shared" ref="DW4:DW41" si="87">IF(DU4&gt;=3.51,"Excellent",(IF(DU4&gt;=2.75,"Highly Satisfactory",(IF(DU4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX4" s="12" t="s">
+      <c r="DX4" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3095,11 +3101,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX5" s="12" t="s">
+      <c r="DX5" s="28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3545,11 +3551,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX6" s="12" t="s">
+      <c r="DX6" s="28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3995,11 +4001,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX7" s="12" t="s">
+      <c r="DX7" s="28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4445,11 +4451,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX8" s="12" t="s">
+      <c r="DX8" s="28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:128" ht="30" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4895,11 +4901,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX9" s="12" t="s">
+      <c r="DX9" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5345,11 +5351,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX10" s="12" t="s">
+      <c r="DX10" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5795,11 +5801,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX11" s="12" t="s">
+      <c r="DX11" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -6245,11 +6251,11 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX12" s="12" t="s">
+      <c r="DX12" s="28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -6695,11 +6701,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX13" s="12" t="s">
+      <c r="DX13" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -7145,11 +7151,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX14" s="12" t="s">
+      <c r="DX14" s="28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -7595,11 +7601,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX15" s="12" t="s">
+      <c r="DX15" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -8045,11 +8051,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX16" s="12" t="s">
+      <c r="DX16" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -8495,11 +8501,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX17" s="22" t="s">
+      <c r="DX17" s="29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -8945,11 +8951,11 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX18" s="12" t="s">
+      <c r="DX18" s="28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -9395,11 +9401,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX19" s="12" t="s">
+      <c r="DX19" s="28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -9845,11 +9851,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX20" s="12" t="s">
+      <c r="DX20" s="28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -10295,11 +10301,11 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX21" s="12" t="s">
+      <c r="DX21" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -10745,11 +10751,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX22" s="12" t="s">
+      <c r="DX22" s="28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -11195,11 +11201,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX23" s="12" t="s">
+      <c r="DX23" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -11645,11 +11651,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX24" s="12" t="s">
+      <c r="DX24" s="28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -12095,11 +12101,11 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX25" s="12" t="s">
+      <c r="DX25" s="28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -12545,11 +12551,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX26" s="12" t="s">
+      <c r="DX26" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:128" ht="30" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -12995,11 +13001,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX27" s="12" t="s">
+      <c r="DX27" s="28" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:128" ht="30" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -13445,11 +13451,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX28" s="12" t="s">
+      <c r="DX28" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -13895,11 +13901,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX29" s="12" t="s">
+      <c r="DX29" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -14345,11 +14351,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX30" s="12" t="s">
+      <c r="DX30" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -14795,11 +14801,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX31" s="12" t="s">
+      <c r="DX31" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:128" ht="30" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -15245,11 +15251,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX32" s="12" t="s">
+      <c r="DX32" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -15695,11 +15701,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX33" s="12" t="s">
+      <c r="DX33" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:128" ht="30" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -16145,11 +16151,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX34" s="12" t="s">
+      <c r="DX34" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -16595,11 +16601,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX35" s="12" t="s">
+      <c r="DX35" s="28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:128" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:128" ht="30" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -17045,11 +17051,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX36" s="12" t="s">
+      <c r="DX36" s="28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -17495,11 +17501,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX37" s="12" t="s">
+      <c r="DX37" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -17945,11 +17951,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX38" s="12" t="s">
+      <c r="DX38" s="28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -18391,9 +18397,9 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX39" s="12"/>
+      <c r="DX39" s="28"/>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -18839,11 +18845,11 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX40" s="12" t="s">
+      <c r="DX40" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:128" ht="15" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -19289,12 +19295,34 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX41" s="12" t="s">
+      <c r="DX41" s="28" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="DX1:DX2"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DP1:DQ1"/>
+    <mergeCell ref="DR1:DR2"/>
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="R1:V1"/>
     <mergeCell ref="DN1:DO1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -19311,28 +19339,6 @@
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="DW1:DW2"/>
-    <mergeCell ref="DX1:DX2"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DP1:DQ1"/>
-    <mergeCell ref="DR1:DR2"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
+++ b/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443D63D-53DC-4416-BB9B-3138851AD2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050090E0-A24E-462B-9E60-E2C5364B6F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="222">
   <si>
     <t>NO</t>
   </si>
@@ -453,9 +453,6 @@
     <t>08 Maret 1990</t>
   </si>
   <si>
-    <t>23 November 1993</t>
-  </si>
-  <si>
     <t>Kijang</t>
   </si>
   <si>
@@ -471,46 +468,12 @@
     <t>02 April 1982</t>
   </si>
   <si>
-    <t>HUBUNGAN PENGETAHUAN DAN SELF EFFICACY PASIEN TUBERKULOSIS PARU DENGAN PENCEGAHAN PENULARAN
-TUBERKULOSIS PARU DI WILAYAH KERJA PUSKESMAS BATU 10 TANJUNGPINANG</t>
-  </si>
-  <si>
     <t>Hubungan Frekuensi Open Suction Terhadap Kejadian Ventilator Associated Pneumonia (VAP) Di Ruang ICU Rumkital dr. Midiyato Suratani Tanjungpinang</t>
   </si>
   <si>
-    <t xml:space="preserve">PENGARUH DUKUNGAN SPIRITUAL DOA TERHADAP TINGKAT KECEMASAN PRE OPERASI KATARAK DI POLIKLINIK MATA RSUD KOTA TANJUNGPINANG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PENGARUH PENGUATAN EDUKASI DENGAN MEDIA VIDEO ANIMASI  KATETERISASI JANTUNG TERHADAP PENURUNAN TINGKAT KECEMASAN PASIEN PRE TINDAKAN KATETERISASI 
-JANTUNG DI INSTALASI RAWAT INAP
-RSUD RAJA AHMAD TABIB 
-TANJUNGPINANG</t>
-  </si>
-  <si>
-    <t>FAKTOR - FAKTOR YANG BERHUBUNGAN DENGAN KEJADIAN DROP OUT PENGOBATAN TUBERKULOSIS DI UPTD PUSKESMAS BATU 10 KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
-    <t>PENGARUH TERAPI MINYAK ESENSIAL LAVENDER TERHADAP NYERI INSERSI KANULASI ARTERI VENA FISTULA PADA PASIEN HEMODIALISA DI RSUD KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pengaruh perawatan luka modern menggunakan madu terhadap penyembuhan ulkus diabetikum di Rumkital dr Midiyato Tanjungpinang </t>
   </si>
   <si>
-    <t>FAKTOR-FAKTOR YANG BERHUBUNGAN DENGAN KEPUASAN KERJA DAN EFIKASI DIRI PERAWAT DI PUSKESMAS SE-KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENGARUH MODEL PENDIDIKAN FGD (FOCUS GROUP DISCUSSION) TERHADAP TINGKAT PENGETAHUAN IBU USIA SUBUR DALAM PENCEGAHAN STUNTING DI DESA REJAI </t>
-  </si>
-  <si>
-    <t>PENGARUH MASSAGE EFFLEURAGE MINYAK ZAITUN TERHADAP RISIKO LUKA TEKAN DENGAN PENILAIAN SKALA BRADEN PADA PASIEN TIRAH BARING LAMA DI INSTALASI RAWAT INAP MAWAR RSUD KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
-    <t>PENGARUH TERAPI MUSIK KLASIK TERHADAP TEKANAN DARAH PADA PASIEN HIPERTENSI DI RSUD KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
-    <t>PENGARUH PROGRAM GERAKAN SERENTAK TERHADAP PERILAKU JURU PEMANTAU JENTIK KELUARGA DAN ANGKA BEBAS JENTIK DENGAN PENDEKATAN HPM DI RW VI WILAYAH KERJA PUSKESMAS TANJUNG UNGGAT</t>
-  </si>
-  <si>
     <t>Faktor-faktor yang berhubungan dengan stres kerja perawat pelaksana di icu dan IGD RSUD kota Tanjungpinang</t>
   </si>
   <si>
@@ -523,33 +486,21 @@
     <t>Faktor-faktor yang berhubungan dengan kepatuhan perawat dalam pembuangan limbah medis tajam di ruang rawat inap Rumkital Dr. Midiyato Suratani Tanjungpinang</t>
   </si>
   <si>
-    <t xml:space="preserve">HUBUNGAN USIA DAN LAMA OPERASI DENGAN KEJADIAN HIPOTERMIA PADA PASIEN ANESTESI SPINAL DI INSTALASI BEDAH SENTRAL RSUD KOTA TANJUNGPINANG </t>
-  </si>
-  <si>
     <t>Faktor faktor yg berhubungan dengan imunisasi lengkap pada bayi di UPT Puskesmas rejai</t>
   </si>
   <si>
     <t>Perbandingan Efektivitas Terapi Akupresur Dan Foot Massage Terhadap Tekanan Darah Pada Penderita Hipertensi Di Wilayah Kerja UPTD Puskesmas Kampung Bugis Kota Tanjungpinang</t>
   </si>
   <si>
-    <t>PENGARUH EARLY WARNING SCORE (EWS) TERHADAP HEMODINAMIK PASIEN PENYAKIT JANTUNG KORONER DI ICU RSUD KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
     <t>Hubungan riwayat pemberian imunisasi dengan riwayat kejadian pertusis pada anak usia 2 - 24 bulan di Puskesmas Tanjung Unggat Tahun 2024</t>
   </si>
   <si>
-    <t>PENGARUH ACCEPTANCE AND COMMITMENT THERAPY (ACT) DAN ZIKIR ASMAUL HUSNA TERHADAP SELF EFFICACY PADA PASIEN HIPERTENSI DI WILAYAH KERJA PUSKESMAS REJAI</t>
-  </si>
-  <si>
     <t>Hubungan Dukungan Sosial dengan Kemampuan Keluarga dalam Merawat ODGJ di Wilayah Kerja UPTD Puskesmas Tanjung Unggat Kota Tanjungpinang</t>
   </si>
   <si>
     <t xml:space="preserve">pengaruh pemberian jus nanas terhadap proses penyembuhan luka perinium pada ibu nifas di rumah sakit angkatan laut Dr.Midiyato suratan Tanjungpinang </t>
   </si>
   <si>
-    <t>HUBUNGAN BEBAN KELUARGA DENGAN MOTIVASI KELUARGADALAM MERAWAT ANGGOTA KELUARGA DENGANSKIZOFRENIA DI WILAYAH KERJA PUSKESMASBATU 10 TANJUNGPINANG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pengaruh terapi CAM seledri terhadap tekanan darah pada lansia di UPTD Puskesmas Kuala Sempang </t>
   </si>
   <si>
@@ -559,37 +510,196 @@
     <t>Pengaruh Pemberian Makanan Tambahan Lokal Tinggi Protein Hewani Terhadap Berat Badan Balita Gizi Buruk di Wilayah Kerja UPTD Puskesmas Batu 10</t>
   </si>
   <si>
-    <t>HUBUNGAN PERILAKU SEKSUAL DENGAN KEJADIAN HIV/AIDS DI WILAYAH KERJA PUSKESMAS SEIJANG KOTA TANJUNGPINANG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pengaruh Stimulus Oral Exercise terhadap reflfelk hisap BBLR di Ruang Flamboyan RSUD Kota Tanjungpinang </t>
   </si>
   <si>
-    <t xml:space="preserve">HUBUNGAN TINGKAT KECEMASAN POST OPERASI FRAKTUR EKSTREMITAS BAWAH TERHADAP MOBILISASI DINI DI RSAL Dr MIDIYATO SURATANI TANJUNGPINANG </t>
-  </si>
-  <si>
     <t>Faktor-faktor yang berhubungan dengan kepuasan pasien terhadap pelayanan keperawatan di Puskesmas Teluk Sebong</t>
   </si>
   <si>
-    <t>FAKTOR – FAKTOR YANG BERHUBUNGAN DENGAN RISIKO RELAPSE PADA PENYALAHGUNA NARKOBA DI LOKA REHABILITASI BNN BATAM</t>
-  </si>
-  <si>
-    <t>HUBUNGAN LINGKUNGAN DENGAN KEJADIAN HIV/AIDS PADA PERILAKU SEKSUAL LELAKI SEKS LELAKI (LSL) DI PUSKESMAS SEIJANG</t>
-  </si>
-  <si>
     <t>Analisa Respon Time Terhadap Innitial Assesment Untuk Pasien Tidak Gawat dan Tidak Darurat di Instalasi Gawat Darurat RSUD Kota Tanjungpinang</t>
   </si>
   <si>
-    <t>HUBUNGAN EDUKASI TERHADAP KEEFEKTIFAN PENGGUNAAN ALAT NEBULIZER PADA PASIEN ANAK BRONKHOPNEUMONIA DI RUANG SUBI KECIL RSAL DR.MIDIYATO SURATANI TANJUNGPINANG</t>
-  </si>
-  <si>
-    <t>PERBANDINGAN EFEKTIVITAS FAMILIAR AUDITORY SENSORY TRAINING (FAST) DAN TERAPI MUROTTAL TERHADAP 
-TINGKAT KESADARAN PADA PASIEN STROKE 
-RUANG ICU RSUD KOTA 
-TANJUNGPINANG</t>
-  </si>
-  <si>
-    <t>ANALISIS FAKTOR-FAKTOR RESIKO HIPERTENSI PADA CALON JEMAAH HAJI KOTA TANJUNGPINANG</t>
+    <t>23 November 1983</t>
+  </si>
+  <si>
+    <t>Pengaruh Terapi Minyak Esensial Lavender Terhadap Nyeri Insersi Kanulasi Arteri Vena Fistula Pada Pasien Hemodialisa Di Rsud Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Faktor-Faktor Yang Berhubungan Dengan Kepuasan Kerja Dan Efikasi Diri Perawat Di Puskesmas Se-Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Hubungan Beban Keluarga Dengan Motivasi Keluargadalam Merawat Anggota Keluarga Denganskizofrenia Di Wilayah Kerja Puskesmasbatu 10 Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Faktor – Faktor Yang Berhubungan Dengan Risiko Relapse Pada Penyalahguna Narkoba Di Loka Rehabilitasi Bnn Batam</t>
+  </si>
+  <si>
+    <t>Hubungan Pengetahuan Dan Self Efficacy Pasien Tuberkulosis Paru Dengan Pencegahan Penularan Tuberkulosis Paru Di Wilayah Kerja Puskesmas Batu 10 Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Analisis Faktor-Faktor Risiko Hipertensi Pada Calon Jemaah Haji Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Pengaruh Dukungan Spiritual Doa Terhadap Tingkat Kecemasan Pre Operasi Katarak Di Poliklinik Mata RSUD Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Pengaruh Penguatan Edukasi Dengan Media Video Animasi Kateterisasi Jantung Terhadap Penurunan Tingkat Kecemasan Pasien Pre Tindakan Kateterisasi Jantung Di Instalasi Rawat Inap RSUD Raja Ahmad Tabib Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Faktor - Faktor Yang Berhubungan Dengan Kejadian Drop Out Pengobatan Tuberkulosis Di UPTD Puskesmas Batu 10 Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Pengaruh Model Pendidikan FGD (Focus Group Discussion) Terhadap Tingkat Pengetahuan Ibu Usia Subur Dalam Pencegahan Stunting Di Desa Rejai</t>
+  </si>
+  <si>
+    <t>Pengaruh Massage Effleurage Minyak Zaitun Terhadap Risiko Luka Tekan Dengan Penilaian Skala Braden Pada Pasien Tirah Baring Lama Di Instalasi Rawat Inap Mawar RSUD Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Pengaruh Terapi Musik Klasik Terhadap Tekanan Darah Pada Pasien Hipertensi Di RSUD Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Pengaruh Program Gerakan Serentak Terhadap Perilaku Juru Pemantau Jentik Keluarga Dan Angka Bebas Jentik Dengan Pendekatan HPM Di RW VI Wilayah Kerja Puskesmas Tanjung Unggat</t>
+  </si>
+  <si>
+    <t>Hubungan Usia Dan Lama Operasi Dengan Kejadian Hipotermia Pada Pasien Anestesi Spinal Di Instalasi Bedah Sentral RSUD Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Pengaruh Early Warning Score (EWS) Terhadap Hemodinamik Pasien Penyakit Jantung Koroner Di ICU RSUD Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Pengaruh Acceptance And Commitment Therapy (ACT) Dan Zikir Asmaul Husna Terhadap Self Efficacy Pada Pasien Hipertensi Di Wilayah Kerja Puskesmas Rejai</t>
+  </si>
+  <si>
+    <t>Hubungan Perilaku Seksual Dengan Kejadian HIV/AIDS Di Wilayah Kerja Puskesmas Seijang Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Hubungan Tingkat Kecemasan POST Operasi Fraktur Ekstremitas Bawah Terhadap Mobilisasi Dini Di RSAL Dr Midiyato Suratani Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Hubungan Lingkungan Dengan Kejadian HIV/AIDS Pada Perilaku Seksual Lelaki Seks Lelaki (LSL) Di Puskesmas Seijang</t>
+  </si>
+  <si>
+    <t>Hubungan Edukasi Terhadap Keefektifan Penggunaan Alat Nebulizer Pada Pasien Anak Bronkhopneumonia Di Ruang Subi Kecil RSAL Dr.Midiyato Suratani Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Perbandingan Efektivitas Familiar Auditory Sensory Training (FAST) Dan Terapi Murottal Terhadap Tingkat Kesadaran Pada Pasien Stroke Ruang ICU RSUD Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Judul Inggris</t>
+  </si>
+  <si>
+    <t>The Relationship Between Knowledge and Self-Efficacy of Pulmonary Tuberculosis Patients and the Prevention of Tuberculosis Transmission in the Working Area of Batu 10 Health Center, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Analysis of Hypertension Risk Factors Among Prospective Hajj Pilgrims in Tanjungpinang City</t>
+  </si>
+  <si>
+    <t>The Relationship Between Open Suction Frequency and the Incidence of Ventilator-Associated Pneumonia (VAP) in the ICU of Rumkital Dr. Midiyato Suratani, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Spiritual Prayer Support on Preoperative Anxiety Among Cataract Surgery Patients at the Eye Polyclinic of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Enhanced Education Using Animated Catheterization Videos on Reducing Anxiety in Patients Undergoing Cardiac Catheterization at RSUD Raja Ahmad Tabib, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Factors Associated with Treatment Dropout Among Tuberculosis Patients at UPTD Batu 10 Health Center, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Lavender Essential Oil Therapy on Pain During Arteriovenous Fistula Cannulation in Hemodialysis Patients at RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Modern Wound Care Using Honey on the Healing of Diabetic Ulcers at Rumkital Dr. Midiyato, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Factors Associated with Job Satisfaction and Self-Efficacy Among Nurses in Health Centers Across Tanjungpinang City</t>
+  </si>
+  <si>
+    <t>The Effect of Focus Group Discussion (FGD) Education on Knowledge of Women of Reproductive Age Regarding Stunting Prevention in Rejai Village</t>
+  </si>
+  <si>
+    <t>The Effect of Olive Oil Effleurage Massage on Pressure Ulcer Risk Using the Braden Scale in Long-Term Bedridden Patients at Mawar Inpatient Ward, RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Classical Music Therapy on Blood Pressure in Hypertensive Patients at RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of the Simultaneous Movement Program on the Behavior of Family Larvae Monitors and Larvae-Free Rates Using the HPM Approach in RW VI, Tanjung Unggat Health Center</t>
+  </si>
+  <si>
+    <t>Factors Associated with Work Stress Among Nurses in the ICU and ER of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Progressive Mobilization on Hemodynamic Status of Patients in the ICU of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Bladder Training on Urination Ability in Post-BPH Surgery Patients in Mangkai Ward and Urology Clinic, RSAL Midiyato S., Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Factors Associated with Nurses’ Compliance in the Disposal of Sharp Medical Waste at Rumkital Dr. Midiyato Suratani, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Relationship Between Age, Duration of Surgery, and Incidence of Hypothermia in Patients Undergoing Spinal Anesthesia at the Central Surgical Unit of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Factors Associated with Complete Immunization Among Infants at UPT Puskesmas Rejai</t>
+  </si>
+  <si>
+    <t>Comparison of the Effectiveness of Acupressure and Foot Massage on Blood Pressure in Hypertensive Patients in the Kampung Bugis Health Center Area, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of the Early Warning Score (EWS) on Hemodynamics of Coronary Heart Disease Patients in the ICU of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Relationship Between Immunization History and Pertussis Incidence in Children Aged 2–24 Months at Tanjung Unggat Health Center, 2024</t>
+  </si>
+  <si>
+    <t>The Effect of Acceptance and Commitment Therapy (ACT) and Asmaul Husna Dhikr on Self-Efficacy in Hypertensive Patients at Rejai Health Center</t>
+  </si>
+  <si>
+    <t>The Relationship Between Social Support and Family Ability in Caring for People with Mental Disorders (PWMD) in the Tanjung Unggat Health Center Area</t>
+  </si>
+  <si>
+    <t>The Effect of Pineapple Juice on Perineal Wound Healing in Postpartum Mothers</t>
+  </si>
+  <si>
+    <t>The Relationship Between Family Burden and Family Motivation in Caring for Relatives with Schizophrenia in Batu 10 Health Center Area</t>
+  </si>
+  <si>
+    <t>The Effect of Celery Complementary Therapy on Blood Pressure in Older Adults at Kuala Sempang Health Center</t>
+  </si>
+  <si>
+    <t>The Relationship Between Nurse Career Levels, Job Satisfaction, and Self-Efficacy in Inpatient Wards of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Locally Produced High-Animal-Protein Supplementary Food on Weight Gain of Malnourished Toddlers</t>
+  </si>
+  <si>
+    <t>The Relationship Between Sexual Behavior and HIV/AIDS Incidence in the Seijang Health Center Area</t>
+  </si>
+  <si>
+    <t>The Effect of Oral Exercise Stimulation on Sucking Reflex in LBW Infants in Flamboyan Ward, RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Relationship Between Postoperative Anxiety After Lower Limb Fracture and Early Mobilization at RSAL Dr. Midiyato Suratani</t>
+  </si>
+  <si>
+    <t>Factors Associated with Patient Satisfaction Toward Nursing Services at Teluk Sebong Health Center</t>
+  </si>
+  <si>
+    <t>Factors Associated with Relapse Risk Among Drug Users in BNN Rehabilitation Center Batam</t>
+  </si>
+  <si>
+    <t>The Relationship Between Environmental Factors and HIV/AIDS Incidence Among Men Who Have Sex with Men (MSM) at Seijang Health Center</t>
+  </si>
+  <si>
+    <t>Analysis of Response Time in Initial Assessment of Non-Emergency Patients in the Emergency Department of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Relationship Between Education and the Effectiveness of Nebulizer Use in Pediatric Bronchopneumonia Patients in Subi Kecil Ward, RSAL Dr. Midiyato Suratani</t>
+  </si>
+  <si>
+    <t>Comparison of the Effectiveness of FAST (Familiar Auditory Sensory Training) and Murottal Therapy on Consciousness Levels of Stroke Patients in the ICU of RSUD Tanjungpinang</t>
   </si>
 </sst>
 </file>
@@ -688,7 +798,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +814,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +853,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,7 +916,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,17 +943,17 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1143,268 +1271,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC1C482-1510-43F8-A2D8-9629FAD08083}">
-  <dimension ref="A1:DX41"/>
+  <dimension ref="A1:DY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DX21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE20" sqref="CE20"/>
+      <selection pane="bottomRight" activeCell="DY41" sqref="A1:DY41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.265625" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" customWidth="1"/>
-    <col min="4" max="4" width="20.86328125" customWidth="1"/>
-    <col min="5" max="5" width="21.73046875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" customWidth="1"/>
-    <col min="7" max="7" width="24.86328125" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" customWidth="1"/>
-    <col min="9" max="10" width="5.73046875" customWidth="1"/>
-    <col min="11" max="11" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.86328125" customWidth="1"/>
-    <col min="14" max="16" width="5.73046875" customWidth="1"/>
-    <col min="17" max="17" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" customWidth="1"/>
-    <col min="19" max="21" width="5.73046875" customWidth="1"/>
-    <col min="22" max="22" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.73046875" customWidth="1"/>
-    <col min="24" max="27" width="5.73046875" customWidth="1"/>
-    <col min="28" max="28" width="9.265625" customWidth="1"/>
-    <col min="29" max="31" width="5.73046875" customWidth="1"/>
-    <col min="32" max="32" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.86328125" customWidth="1"/>
-    <col min="34" max="36" width="5.73046875" customWidth="1"/>
-    <col min="37" max="37" width="6.265625" customWidth="1"/>
-    <col min="38" max="38" width="8.265625" customWidth="1"/>
-    <col min="39" max="42" width="5.73046875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="19" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" customWidth="1"/>
+    <col min="29" max="31" width="5.7109375" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="34" max="36" width="5.7109375" customWidth="1"/>
+    <col min="37" max="37" width="6.28515625" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" customWidth="1"/>
+    <col min="39" max="42" width="5.7109375" customWidth="1"/>
     <col min="43" max="43" width="8" customWidth="1"/>
-    <col min="44" max="47" width="5.73046875" customWidth="1"/>
-    <col min="48" max="48" width="8.265625" customWidth="1"/>
-    <col min="49" max="66" width="5.73046875" customWidth="1"/>
+    <col min="44" max="47" width="5.7109375" customWidth="1"/>
+    <col min="48" max="48" width="8.28515625" customWidth="1"/>
+    <col min="49" max="66" width="5.7109375" customWidth="1"/>
     <col min="67" max="68" width="8" customWidth="1"/>
-    <col min="70" max="70" width="6.73046875" customWidth="1"/>
-    <col min="126" max="127" width="18.3984375" customWidth="1"/>
-    <col min="128" max="128" width="255" style="30" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.7109375" customWidth="1"/>
+    <col min="126" max="127" width="18.42578125" customWidth="1"/>
+    <col min="128" max="128" width="181.28515625" style="24" customWidth="1"/>
+    <col min="129" max="129" width="184.42578125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="22" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="22" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22" t="s">
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22" t="s">
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22" t="s">
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="23" t="s">
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="24" t="s">
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="22" t="s">
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
-      <c r="BZ1" s="22" t="s">
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="CA1" s="22"/>
-      <c r="CB1" s="22"/>
-      <c r="CC1" s="22"/>
-      <c r="CD1" s="22"/>
-      <c r="CE1" s="22" t="s">
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="CF1" s="22"/>
-      <c r="CG1" s="22"/>
-      <c r="CH1" s="22"/>
-      <c r="CI1" s="22"/>
-      <c r="CJ1" s="23" t="s">
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25"/>
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="CK1" s="23"/>
-      <c r="CL1" s="23"/>
-      <c r="CM1" s="23"/>
-      <c r="CN1" s="23"/>
-      <c r="CO1" s="22" t="s">
+      <c r="CK1" s="27"/>
+      <c r="CL1" s="27"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="CP1" s="22"/>
-      <c r="CQ1" s="22"/>
-      <c r="CR1" s="22"/>
-      <c r="CS1" s="22"/>
-      <c r="CT1" s="22" t="s">
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25"/>
+      <c r="CS1" s="25"/>
+      <c r="CT1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="CU1" s="22"/>
-      <c r="CV1" s="22"/>
-      <c r="CW1" s="22"/>
-      <c r="CX1" s="22"/>
-      <c r="CY1" s="22" t="s">
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="CZ1" s="22"/>
-      <c r="DA1" s="22"/>
-      <c r="DB1" s="22"/>
-      <c r="DC1" s="22"/>
-      <c r="DD1" s="22" t="s">
+      <c r="CZ1" s="25"/>
+      <c r="DA1" s="25"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="DE1" s="22"/>
-      <c r="DF1" s="22"/>
-      <c r="DG1" s="22"/>
-      <c r="DH1" s="22"/>
-      <c r="DI1" s="22" t="s">
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="DJ1" s="22"/>
-      <c r="DK1" s="22"/>
-      <c r="DL1" s="22"/>
-      <c r="DM1" s="22"/>
-      <c r="DN1" s="22" t="s">
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="DO1" s="22"/>
-      <c r="DP1" s="27" t="s">
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="DQ1" s="27"/>
-      <c r="DR1" s="27" t="s">
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="DS1" s="27" t="s">
+      <c r="DS1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="DT1" s="22" t="s">
+      <c r="DT1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="DU1" s="22" t="s">
+      <c r="DU1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="DV1" s="27" t="s">
+      <c r="DV1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="DW1" s="27" t="s">
+      <c r="DW1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="DX1" s="27" t="s">
+      <c r="DX1" s="26" t="s">
         <v>83</v>
       </c>
+      <c r="DY1" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.45">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,15 +1879,16 @@
       <c r="DQ2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="DR2" s="27"/>
-      <c r="DS2" s="27"/>
-      <c r="DT2" s="22"/>
-      <c r="DU2" s="22"/>
-      <c r="DV2" s="27"/>
-      <c r="DW2" s="27"/>
-      <c r="DX2" s="27"/>
+      <c r="DR2" s="26"/>
+      <c r="DS2" s="26"/>
+      <c r="DT2" s="25"/>
+      <c r="DU2" s="25"/>
+      <c r="DV2" s="26"/>
+      <c r="DW2" s="26"/>
+      <c r="DX2" s="26"/>
+      <c r="DY2" s="33"/>
     </row>
-    <row r="3" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2201,11 +2334,14 @@
         <f>IF(DU3&gt;=3.51,"Excellent",(IF(DU3&gt;=2.75,"Highly Satisfactory",(IF(DU3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX3" s="28" t="s">
-        <v>145</v>
+      <c r="DX3" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY3" s="34" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2651,11 +2787,14 @@
         <f t="shared" ref="DW4:DW41" si="87">IF(DU4&gt;=3.51,"Excellent",(IF(DU4&gt;=2.75,"Highly Satisfactory",(IF(DU4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="DX4" s="28" t="s">
-        <v>182</v>
+      <c r="DX4" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="DY4" s="34" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3101,11 +3240,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX5" s="28" t="s">
-        <v>146</v>
+      <c r="DX5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="DY5" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3551,11 +3693,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX6" s="28" t="s">
-        <v>147</v>
+      <c r="DX6" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="DY6" s="34" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4001,11 +4146,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX7" s="28" t="s">
-        <v>148</v>
+      <c r="DX7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY7" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4451,11 +4599,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX8" s="28" t="s">
-        <v>149</v>
+      <c r="DX8" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="DY8" s="34" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:128" ht="30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:129" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4901,11 +5052,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX9" s="28" t="s">
-        <v>150</v>
+      <c r="DX9" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY9" s="34" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5351,11 +5505,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX10" s="28" t="s">
-        <v>151</v>
+      <c r="DX10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="DY10" s="34" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5801,11 +5958,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX11" s="28" t="s">
-        <v>152</v>
+      <c r="DX11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY11" s="34" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -6251,11 +6411,14 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX12" s="28" t="s">
-        <v>153</v>
+      <c r="DX12" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="DY12" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -6701,11 +6864,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX13" s="28" t="s">
-        <v>154</v>
+      <c r="DX13" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY13" s="34" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -7151,11 +7317,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX14" s="28" t="s">
-        <v>155</v>
+      <c r="DX14" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="DY14" s="34" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -7601,11 +7770,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX15" s="28" t="s">
-        <v>156</v>
+      <c r="DX15" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY15" s="34" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -8051,11 +8223,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX16" s="28" t="s">
-        <v>157</v>
+      <c r="DX16" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY16" s="34" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -8501,11 +8676,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX17" s="29" t="s">
-        <v>158</v>
+      <c r="DX17" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="DY17" s="34" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -8951,11 +9129,14 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX18" s="28" t="s">
-        <v>159</v>
+      <c r="DX18" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY18" s="34" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -9401,11 +9582,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX19" s="28" t="s">
-        <v>160</v>
+      <c r="DX19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY19" s="34" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -9851,11 +10035,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX20" s="28" t="s">
-        <v>161</v>
+      <c r="DX20" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="DY20" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -10301,11 +10488,14 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX21" s="28" t="s">
-        <v>162</v>
+      <c r="DX21" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="DY21" s="34" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -10751,11 +10941,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX22" s="28" t="s">
-        <v>163</v>
+      <c r="DX22" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY22" s="34" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -10769,7 +10962,7 @@
         <v>90</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -11201,11 +11394,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX23" s="28" t="s">
-        <v>164</v>
+      <c r="DX23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="DY23" s="34" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -11216,10 +11412,10 @@
         <v>172312041</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -11651,11 +11847,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX24" s="28" t="s">
-        <v>165</v>
+      <c r="DX24" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="DY24" s="34" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -12101,11 +12300,14 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX25" s="28" t="s">
-        <v>166</v>
+      <c r="DX25" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DY25" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -12119,7 +12321,7 @@
         <v>90</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -12551,11 +12753,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX26" s="28" t="s">
-        <v>167</v>
+      <c r="DX26" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="DY26" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:128" ht="30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:129" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -13001,11 +13206,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX27" s="28" t="s">
-        <v>168</v>
+      <c r="DX27" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="DY27" s="34" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:128" ht="30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:129" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -13451,11 +13659,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX28" s="28" t="s">
-        <v>169</v>
+      <c r="DX28" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="DY28" s="34" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -13901,11 +14112,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX29" s="28" t="s">
-        <v>170</v>
+      <c r="DX29" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="DY29" s="34" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -14351,11 +14565,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX30" s="28" t="s">
-        <v>171</v>
+      <c r="DX30" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY30" s="34" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -14801,11 +15018,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX31" s="28" t="s">
-        <v>172</v>
+      <c r="DX31" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="DY31" s="34" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:128" ht="30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:129" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -15251,11 +15471,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX32" s="28" t="s">
-        <v>173</v>
+      <c r="DX32" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="DY32" s="34" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -15701,11 +15924,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX33" s="28" t="s">
-        <v>174</v>
+      <c r="DX33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY33" s="34" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:128" ht="30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:129" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -16151,11 +16377,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX34" s="28" t="s">
-        <v>175</v>
+      <c r="DX34" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="DY34" s="34" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -16601,11 +16830,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX35" s="28" t="s">
-        <v>176</v>
+      <c r="DX35" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY35" s="34" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:128" ht="30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:129" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -17051,11 +17283,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX36" s="28" t="s">
-        <v>177</v>
+      <c r="DX36" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="DY36" s="34" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -17501,11 +17736,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX37" s="28" t="s">
-        <v>178</v>
+      <c r="DX37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="DY37" s="34" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -17951,15 +18189,18 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX38" s="28" t="s">
-        <v>179</v>
+      <c r="DX38" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY38" s="34" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="2">
@@ -18397,9 +18638,10 @@
         <f t="shared" si="87"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="DX39" s="28"/>
+      <c r="DX39" s="22"/>
+      <c r="DY39" s="34"/>
     </row>
-    <row r="40" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -18410,10 +18652,10 @@
         <v>172312057</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -18845,11 +19087,14 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX40" s="28" t="s">
-        <v>180</v>
+      <c r="DX40" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="DY40" s="34" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:128" ht="15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -19295,12 +19540,38 @@
         <f t="shared" si="87"/>
         <v>Excellent</v>
       </c>
-      <c r="DX41" s="28" t="s">
-        <v>181</v>
+      <c r="DX41" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="DY41" s="34" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="DY1:DY2"/>
+    <mergeCell ref="DN1:DO1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="R1:V1"/>
     <mergeCell ref="DI1:DM1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="DV1:DV2"/>
@@ -19317,28 +19588,6 @@
     <mergeCell ref="DT1:DT2"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="DN1:DO1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
+++ b/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050090E0-A24E-462B-9E60-E2C5364B6F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED1F55-89FB-49A8-A565-8364BC7978D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="262">
   <si>
     <t>NO</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Vinna Septatiana</t>
   </si>
   <si>
-    <t>Windy Erviani</t>
-  </si>
-  <si>
     <t>Yeni Antanika</t>
   </si>
   <si>
@@ -700,6 +697,129 @@
   </si>
   <si>
     <t>Comparison of the Effectiveness of FAST (Familiar Auditory Sensory Training) and Murottal Therapy on Consciousness Levels of Stroke Patients in the ICU of RSUD Tanjungpinang</t>
+  </si>
+  <si>
+    <t>23 Mei 2025</t>
+  </si>
+  <si>
+    <t>7 November 2025</t>
+  </si>
+  <si>
+    <t>6 Oktober 2025</t>
+  </si>
+  <si>
+    <t>958 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>959 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>960 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>961 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>964 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>965 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>966 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>968 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>969 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>970 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>971 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>972 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>973 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>974 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>975 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>977 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>978 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>979 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>980 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>981 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>982 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>983 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>984 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>985 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>986 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>987 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>988 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>989 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>990 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>991 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>992 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>993 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>994 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>995 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>963 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>967 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>962 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>976 / 11 / XI / 2025</t>
   </si>
 </sst>
 </file>
@@ -709,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,8 +917,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,12 +940,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +973,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,10 +1045,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,17 +1069,15 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1271,13 +1395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC1C482-1510-43F8-A2D8-9629FAD08083}">
-  <dimension ref="A1:DY41"/>
+  <dimension ref="A1:DY40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DX21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DY41" sqref="A1:DY41"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,8 +1410,7 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="10" width="5.7109375" customWidth="1"/>
@@ -1317,226 +1440,226 @@
     <col min="70" max="70" width="6.7109375" customWidth="1"/>
     <col min="126" max="127" width="18.42578125" customWidth="1"/>
     <col min="128" max="128" width="181.28515625" style="24" customWidth="1"/>
-    <col min="129" max="129" width="184.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="184.42578125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="CF1" s="28"/>
+      <c r="CG1" s="28"/>
+      <c r="CH1" s="28"/>
+      <c r="CI1" s="28"/>
+      <c r="CJ1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28"/>
+      <c r="CR1" s="28"/>
+      <c r="CS1" s="28"/>
+      <c r="CT1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU1" s="28"/>
+      <c r="CV1" s="28"/>
+      <c r="CW1" s="28"/>
+      <c r="CX1" s="28"/>
+      <c r="CY1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="CZ1" s="28"/>
+      <c r="DA1" s="28"/>
+      <c r="DB1" s="28"/>
+      <c r="DC1" s="28"/>
+      <c r="DD1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="DE1" s="28"/>
+      <c r="DF1" s="28"/>
+      <c r="DG1" s="28"/>
+      <c r="DH1" s="28"/>
+      <c r="DI1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="DJ1" s="28"/>
+      <c r="DK1" s="28"/>
+      <c r="DL1" s="28"/>
+      <c r="DM1" s="28"/>
+      <c r="DN1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="DO1" s="28"/>
+      <c r="DP1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="DQ1" s="33"/>
+      <c r="DR1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="DU1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="DV1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="25"/>
-      <c r="BZ1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="25"/>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="CF1" s="25"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="25"/>
-      <c r="CI1" s="25"/>
-      <c r="CJ1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP1" s="25"/>
-      <c r="CQ1" s="25"/>
-      <c r="CR1" s="25"/>
-      <c r="CS1" s="25"/>
-      <c r="CT1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="CU1" s="25"/>
-      <c r="CV1" s="25"/>
-      <c r="CW1" s="25"/>
-      <c r="CX1" s="25"/>
-      <c r="CY1" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="CZ1" s="25"/>
-      <c r="DA1" s="25"/>
-      <c r="DB1" s="25"/>
-      <c r="DC1" s="25"/>
-      <c r="DD1" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="DE1" s="25"/>
-      <c r="DF1" s="25"/>
-      <c r="DG1" s="25"/>
-      <c r="DH1" s="25"/>
-      <c r="DI1" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="DJ1" s="25"/>
-      <c r="DK1" s="25"/>
-      <c r="DL1" s="25"/>
-      <c r="DM1" s="25"/>
-      <c r="DN1" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="DO1" s="25"/>
-      <c r="DP1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="DQ1" s="26"/>
-      <c r="DR1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="DS1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="DU1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="DV1" s="26" t="s">
+      <c r="DW1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="DW1" s="26" t="s">
+      <c r="DX1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="DX1" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY1" s="33" t="s">
-        <v>183</v>
+      <c r="DY1" s="27" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1879,14 +2002,14 @@
       <c r="DQ2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="DR2" s="26"/>
-      <c r="DS2" s="26"/>
-      <c r="DT2" s="25"/>
-      <c r="DU2" s="25"/>
-      <c r="DV2" s="26"/>
-      <c r="DW2" s="26"/>
-      <c r="DX2" s="26"/>
-      <c r="DY2" s="33"/>
+      <c r="DR2" s="33"/>
+      <c r="DS2" s="33"/>
+      <c r="DT2" s="28"/>
+      <c r="DU2" s="28"/>
+      <c r="DV2" s="33"/>
+      <c r="DW2" s="33"/>
+      <c r="DX2" s="33"/>
+      <c r="DY2" s="27"/>
     </row>
     <row r="3" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1899,13 +2022,17 @@
         <v>172312019</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>224</v>
+      </c>
       <c r="H3" s="6">
         <v>76.266666666666666</v>
       </c>
@@ -2180,7 +2307,7 @@
         <v>82.4</v>
       </c>
       <c r="CF3" s="4" t="str">
-        <f t="shared" ref="CF3:CF41" si="16">IF(CE3&gt;=80,"A",IF(CE3&gt;=75,"B+",IF(CE3&gt;=70,"B",IF(CE3&gt;=65,"C+",IF(CE3&gt;=60,"C",IF(CE3&gt;=55,"D",IF(CE3&lt;54,"E")))))))</f>
+        <f t="shared" ref="CF3:CF40" si="16">IF(CE3&gt;=80,"A",IF(CE3&gt;=75,"B+",IF(CE3&gt;=70,"B",IF(CE3&gt;=65,"C+",IF(CE3&gt;=60,"C",IF(CE3&gt;=55,"D",IF(CE3&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="CG3" s="3">
@@ -2198,7 +2325,7 @@
         <v>74.125</v>
       </c>
       <c r="CK3" s="4" t="str">
-        <f t="shared" ref="CK3:CK41" si="18">IF(CJ3&gt;=80,"A",IF(CJ3&gt;=75,"B+",IF(CJ3&gt;=70,"B",IF(CJ3&gt;=65,"C+",IF(CJ3&gt;=60,"C",IF(CJ3&gt;=55,"D",IF(CJ3&lt;54,"E")))))))</f>
+        <f t="shared" ref="CK3:CK40" si="18">IF(CJ3&gt;=80,"A",IF(CJ3&gt;=75,"B+",IF(CJ3&gt;=70,"B",IF(CJ3&gt;=65,"C+",IF(CJ3&gt;=60,"C",IF(CJ3&gt;=55,"D",IF(CJ3&lt;54,"E")))))))</f>
         <v>B</v>
       </c>
       <c r="CL3" s="3">
@@ -2234,7 +2361,7 @@
         <v>80.2</v>
       </c>
       <c r="CU3" s="4" t="str">
-        <f t="shared" ref="CU3:CU41" si="22">IF(CT3&gt;=80,"A",IF(CT3&gt;=75,"B+",IF(CT3&gt;=70,"B",IF(CT3&gt;=65,"C+",IF(CT3&gt;=60,"C",IF(CT3&gt;=55,"D",IF(CT3&lt;54,"E")))))))</f>
+        <f t="shared" ref="CU3:CU40" si="22">IF(CT3&gt;=80,"A",IF(CT3&gt;=75,"B+",IF(CT3&gt;=70,"B",IF(CT3&gt;=65,"C+",IF(CT3&gt;=60,"C",IF(CT3&gt;=55,"D",IF(CT3&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="CV3" s="3">
@@ -2252,7 +2379,7 @@
         <v>80.2</v>
       </c>
       <c r="CZ3" s="4" t="str">
-        <f t="shared" ref="CZ3:CZ41" si="24">IF(CY3&gt;=80,"A",IF(CY3&gt;=75,"B+",IF(CY3&gt;=70,"B",IF(CY3&gt;=65,"C+",IF(CY3&gt;=60,"C",IF(CY3&gt;=55,"D",IF(CY3&lt;54,"E")))))))</f>
+        <f t="shared" ref="CZ3:CZ40" si="24">IF(CY3&gt;=80,"A",IF(CY3&gt;=75,"B+",IF(CY3&gt;=70,"B",IF(CY3&gt;=65,"C+",IF(CY3&gt;=60,"C",IF(CY3&gt;=55,"D",IF(CY3&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="DA3" s="3">
@@ -2270,7 +2397,7 @@
         <v>79</v>
       </c>
       <c r="DE3" s="4" t="str">
-        <f t="shared" ref="DE3:DE41" si="26">IF(DD3&gt;=80,"A",IF(DD3&gt;=75,"B+",IF(DD3&gt;=70,"B",IF(DD3&gt;=65,"C+",IF(DD3&gt;=60,"C",IF(DD3&gt;=55,"D",IF(DD3&lt;54,"E")))))))</f>
+        <f t="shared" ref="DE3:DE40" si="26">IF(DD3&gt;=80,"A",IF(DD3&gt;=75,"B+",IF(DD3&gt;=70,"B",IF(DD3&gt;=65,"C+",IF(DD3&gt;=60,"C",IF(DD3&gt;=55,"D",IF(DD3&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="DF3" s="3">
@@ -2288,7 +2415,7 @@
         <v>82.814999999999998</v>
       </c>
       <c r="DJ3" s="4" t="str">
-        <f t="shared" ref="DJ3:DJ41" si="28">IF(DI3&gt;=80,"A",IF(DI3&gt;=75,"B+",IF(DI3&gt;=70,"B",IF(DI3&gt;=65,"C+",IF(DI3&gt;=60,"C",IF(DI3&gt;=55,"D",IF(DI3&lt;54,"E")))))))</f>
+        <f t="shared" ref="DJ3:DJ40" si="28">IF(DI3&gt;=80,"A",IF(DI3&gt;=75,"B+",IF(DI3&gt;=70,"B",IF(DI3&gt;=65,"C+",IF(DI3&gt;=60,"C",IF(DI3&gt;=55,"D",IF(DI3&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="DK3" s="3">
@@ -2335,10 +2462,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX3" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="DY3" s="34" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="DY3" s="26" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,263 +2479,267 @@
         <v>172312021</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>225</v>
+      </c>
       <c r="H4" s="6">
         <v>76.333333333333329</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4:I41" si="30">IF(H4&gt;=80,"A",IF(H4&gt;=75,"B+",IF(H4&gt;=70,"B",IF(H4&gt;=65,"C+",IF(H4&gt;=60,"C",IF(H4&gt;=55,"D",IF(H4&lt;54,"E")))))))</f>
+        <f t="shared" ref="I4:I40" si="30">IF(H4&gt;=80,"A",IF(H4&gt;=75,"B+",IF(H4&gt;=70,"B",IF(H4&gt;=65,"C+",IF(H4&gt;=60,"C",IF(H4&gt;=55,"D",IF(H4&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J41" si="31">IF(I4="A",4,IF(I4="B+",3.5,IF(I4="B",3,IF(I4="C+",2.5,IF(I4="C",2,IF(I4="D",1,0))))))</f>
+        <f t="shared" ref="J4:J40" si="31">IF(I4="A",4,IF(I4="B+",3.5,IF(I4="B",3,IF(I4="C+",2.5,IF(I4="C",2,IF(I4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="K4" s="3">
         <v>2</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" ref="L4:L41" si="32">J4*K4</f>
+        <f t="shared" ref="L4:L40" si="32">J4*K4</f>
         <v>7</v>
       </c>
       <c r="M4" s="7">
         <v>82.1</v>
       </c>
       <c r="N4" s="4" t="str">
-        <f t="shared" ref="N4:N41" si="33">IF(M4&gt;=80,"A",IF(M4&gt;=75,"B+",IF(M4&gt;=70,"B",IF(M4&gt;=65,"C+",IF(M4&gt;=60,"C",IF(M4&gt;=55,"D",IF(M4&lt;54,"E")))))))</f>
+        <f t="shared" ref="N4:N40" si="33">IF(M4&gt;=80,"A",IF(M4&gt;=75,"B+",IF(M4&gt;=70,"B",IF(M4&gt;=65,"C+",IF(M4&gt;=60,"C",IF(M4&gt;=55,"D",IF(M4&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O41" si="34">IF(N4="A",4,IF(N4="B+",3.5,IF(N4="B",3,IF(N4="C+",2.5,IF(N4="C",2,IF(N4="D",1,0))))))</f>
+        <f t="shared" ref="O4:O40" si="34">IF(N4="A",4,IF(N4="B+",3.5,IF(N4="B",3,IF(N4="C+",2.5,IF(N4="C",2,IF(N4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="P4" s="3">
         <v>2</v>
       </c>
       <c r="Q4" s="12">
-        <f t="shared" ref="Q4:Q41" si="35">O4*P4</f>
+        <f t="shared" ref="Q4:Q40" si="35">O4*P4</f>
         <v>8</v>
       </c>
       <c r="R4" s="15">
         <v>79</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" ref="S4:S41" si="36">IF(R4&gt;=80,"A",IF(R4&gt;=75,"B+",IF(R4&gt;=70,"B",IF(R4&gt;=65,"C+",IF(R4&gt;=60,"C",IF(R4&gt;=55,"D",IF(R4&lt;54,"E")))))))</f>
+        <f t="shared" ref="S4:S40" si="36">IF(R4&gt;=80,"A",IF(R4&gt;=75,"B+",IF(R4&gt;=70,"B",IF(R4&gt;=65,"C+",IF(R4&gt;=60,"C",IF(R4&gt;=55,"D",IF(R4&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" ref="T4:T41" si="37">IF(S4="A",4,IF(S4="B+",3.5,IF(S4="B",3,IF(S4="C+",2.5,IF(S4="C",2,IF(S4="D",1,0))))))</f>
+        <f t="shared" ref="T4:T40" si="37">IF(S4="A",4,IF(S4="B+",3.5,IF(S4="B",3,IF(S4="C+",2.5,IF(S4="C",2,IF(S4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
       <c r="V4" s="12">
-        <f t="shared" ref="V4:V41" si="38">T4*U4</f>
+        <f t="shared" ref="V4:V40" si="38">T4*U4</f>
         <v>7</v>
       </c>
       <c r="W4" s="8">
         <v>80</v>
       </c>
       <c r="X4" s="4" t="str">
-        <f t="shared" ref="X4:X41" si="39">IF(W4&gt;=80,"A",IF(W4&gt;=75,"B+",IF(W4&gt;=70,"B",IF(W4&gt;=65,"C+",IF(W4&gt;=60,"C",IF(W4&gt;=55,"D",IF(W4&lt;54,"E")))))))</f>
+        <f t="shared" ref="X4:X40" si="39">IF(W4&gt;=80,"A",IF(W4&gt;=75,"B+",IF(W4&gt;=70,"B",IF(W4&gt;=65,"C+",IF(W4&gt;=60,"C",IF(W4&gt;=55,"D",IF(W4&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" ref="Y4:Y41" si="40">IF(X4="A",4,IF(X4="B+",3.5,IF(X4="B",3,IF(X4="C+",2.5,IF(X4="C",2,IF(X4="D",1,0))))))</f>
+        <f t="shared" ref="Y4:Y40" si="40">IF(X4="A",4,IF(X4="B+",3.5,IF(X4="B",3,IF(X4="C+",2.5,IF(X4="C",2,IF(X4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="Z4" s="3">
         <v>3</v>
       </c>
       <c r="AA4" s="12">
-        <f t="shared" ref="AA4:AA41" si="41">Y4*Z4</f>
+        <f t="shared" ref="AA4:AA40" si="41">Y4*Z4</f>
         <v>12</v>
       </c>
       <c r="AB4" s="3">
         <v>78.900000000000006</v>
       </c>
       <c r="AC4" s="4" t="str">
-        <f t="shared" ref="AC4:AC41" si="42">IF(AB4&gt;=80,"A",IF(AB4&gt;=75,"B+",IF(AB4&gt;=70,"B",IF(AB4&gt;=65,"C+",IF(AB4&gt;=60,"C",IF(AB4&gt;=55,"D",IF(AB4&lt;54,"E")))))))</f>
+        <f t="shared" ref="AC4:AC40" si="42">IF(AB4&gt;=80,"A",IF(AB4&gt;=75,"B+",IF(AB4&gt;=70,"B",IF(AB4&gt;=65,"C+",IF(AB4&gt;=60,"C",IF(AB4&gt;=55,"D",IF(AB4&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="AD4" s="3">
-        <f t="shared" ref="AD4:AD41" si="43">IF(AC4="A",4,IF(AC4="B+",3.5,IF(AC4="B",3,IF(AC4="C+",2.5,IF(AC4="C",2,IF(AC4="D",1,0))))))</f>
+        <f t="shared" ref="AD4:AD40" si="43">IF(AC4="A",4,IF(AC4="B+",3.5,IF(AC4="B",3,IF(AC4="C+",2.5,IF(AC4="C",2,IF(AC4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="AE4" s="3">
         <v>2</v>
       </c>
       <c r="AF4" s="12">
-        <f t="shared" ref="AF4:AF41" si="44">AD4*AE4</f>
+        <f t="shared" ref="AF4:AF40" si="44">AD4*AE4</f>
         <v>7</v>
       </c>
       <c r="AG4" s="3">
         <v>82.1</v>
       </c>
       <c r="AH4" s="4" t="str">
-        <f t="shared" ref="AH4:AH41" si="45">IF(AG4&gt;=80,"A",IF(AG4&gt;=75,"B+",IF(AG4&gt;=70,"B",IF(AG4&gt;=65,"C+",IF(AG4&gt;=60,"C",IF(AG4&gt;=55,"D",IF(AG4&lt;54,"E")))))))</f>
+        <f t="shared" ref="AH4:AH40" si="45">IF(AG4&gt;=80,"A",IF(AG4&gt;=75,"B+",IF(AG4&gt;=70,"B",IF(AG4&gt;=65,"C+",IF(AG4&gt;=60,"C",IF(AG4&gt;=55,"D",IF(AG4&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" ref="AI4:AI41" si="46">IF(AH4="A",4,IF(AH4="B+",3.5,IF(AH4="B",3,IF(AH4="C+",2.5,IF(AH4="C",2,IF(AH4="D",1,0))))))</f>
+        <f t="shared" ref="AI4:AI40" si="46">IF(AH4="A",4,IF(AH4="B+",3.5,IF(AH4="B",3,IF(AH4="C+",2.5,IF(AH4="C",2,IF(AH4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="AJ4" s="3">
         <v>2</v>
       </c>
       <c r="AK4" s="12">
-        <f t="shared" ref="AK4:AK41" si="47">AI4*AJ4</f>
+        <f t="shared" ref="AK4:AK40" si="47">AI4*AJ4</f>
         <v>8</v>
       </c>
       <c r="AL4" s="3">
         <v>80</v>
       </c>
       <c r="AM4" s="4" t="str">
-        <f t="shared" ref="AM4:AM41" si="48">IF(AL4&gt;=80,"A",IF(AL4&gt;=75,"B+",IF(AL4&gt;=70,"B",IF(AL4&gt;=65,"C+",IF(AL4&gt;=60,"C",IF(AL4&gt;=55,"D",IF(AL4&lt;54,"E")))))))</f>
+        <f t="shared" ref="AM4:AM40" si="48">IF(AL4&gt;=80,"A",IF(AL4&gt;=75,"B+",IF(AL4&gt;=70,"B",IF(AL4&gt;=65,"C+",IF(AL4&gt;=60,"C",IF(AL4&gt;=55,"D",IF(AL4&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="AN4" s="3">
-        <f t="shared" ref="AN4:AN41" si="49">IF(AM4="A",4,IF(AM4="B+",3.5,IF(AM4="B",3,IF(AM4="C+",2.5,IF(AM4="C",2,IF(AM4="D",1,0))))))</f>
+        <f t="shared" ref="AN4:AN40" si="49">IF(AM4="A",4,IF(AM4="B+",3.5,IF(AM4="B",3,IF(AM4="C+",2.5,IF(AM4="C",2,IF(AM4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="AO4" s="3">
         <v>2</v>
       </c>
       <c r="AP4" s="12">
-        <f t="shared" ref="AP4:AP41" si="50">AN4*AO4</f>
+        <f t="shared" ref="AP4:AP40" si="50">AN4*AO4</f>
         <v>8</v>
       </c>
       <c r="AQ4" s="9">
         <v>84.633333333333326</v>
       </c>
       <c r="AR4" s="4" t="str">
-        <f t="shared" ref="AR4:AR41" si="51">IF(AQ4&gt;=80,"A",IF(AQ4&gt;=75,"B+",IF(AQ4&gt;=70,"B",IF(AQ4&gt;=65,"C+",IF(AQ4&gt;=60,"C",IF(AQ4&gt;=55,"D",IF(AQ4&lt;54,"E")))))))</f>
+        <f t="shared" ref="AR4:AR40" si="51">IF(AQ4&gt;=80,"A",IF(AQ4&gt;=75,"B+",IF(AQ4&gt;=70,"B",IF(AQ4&gt;=65,"C+",IF(AQ4&gt;=60,"C",IF(AQ4&gt;=55,"D",IF(AQ4&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="AS4" s="3">
-        <f t="shared" ref="AS4:AS41" si="52">IF(AR4="A",4,IF(AR4="B+",3.5,IF(AR4="B",3,IF(AR4="C+",2.5,IF(AR4="C",2,IF(AR4="D",1,0))))))</f>
+        <f t="shared" ref="AS4:AS40" si="52">IF(AR4="A",4,IF(AR4="B+",3.5,IF(AR4="B",3,IF(AR4="C+",2.5,IF(AR4="C",2,IF(AR4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="AT4" s="3">
         <v>2</v>
       </c>
       <c r="AU4" s="12">
-        <f t="shared" ref="AU4:AU41" si="53">AS4*AT4</f>
+        <f t="shared" ref="AU4:AU40" si="53">AS4*AT4</f>
         <v>8</v>
       </c>
       <c r="AV4" s="8">
         <v>71</v>
       </c>
       <c r="AW4" s="4" t="str">
-        <f t="shared" ref="AW4:AW41" si="54">IF(AV4&gt;=80,"A",IF(AV4&gt;=75,"B+",IF(AV4&gt;=70,"B",IF(AV4&gt;=65,"C+",IF(AV4&gt;=60,"C",IF(AV4&gt;=55,"D",IF(AV4&lt;54,"E")))))))</f>
+        <f t="shared" ref="AW4:AW40" si="54">IF(AV4&gt;=80,"A",IF(AV4&gt;=75,"B+",IF(AV4&gt;=70,"B",IF(AV4&gt;=65,"C+",IF(AV4&gt;=60,"C",IF(AV4&gt;=55,"D",IF(AV4&lt;54,"E")))))))</f>
         <v>B</v>
       </c>
       <c r="AX4" s="3">
-        <f t="shared" ref="AX4:AX41" si="55">IF(AW4="A",4,IF(AW4="B+",3.5,IF(AW4="B",3,IF(AW4="C+",2.5,IF(AW4="C",2,IF(AW4="D",1,0))))))</f>
+        <f t="shared" ref="AX4:AX40" si="55">IF(AW4="A",4,IF(AW4="B+",3.5,IF(AW4="B",3,IF(AW4="C+",2.5,IF(AW4="C",2,IF(AW4="D",1,0))))))</f>
         <v>3</v>
       </c>
       <c r="AY4" s="3">
         <v>3</v>
       </c>
       <c r="AZ4" s="12">
-        <f t="shared" ref="AZ4:AZ41" si="56">AX4*AY4</f>
+        <f t="shared" ref="AZ4:AZ40" si="56">AX4*AY4</f>
         <v>9</v>
       </c>
       <c r="BA4" s="3">
         <v>74.525000000000006</v>
       </c>
       <c r="BB4" s="4" t="str">
-        <f t="shared" ref="BB4:BB41" si="57">IF(BA4&gt;=80,"A",IF(BA4&gt;=75,"B+",IF(BA4&gt;=70,"B",IF(BA4&gt;=65,"C+",IF(BA4&gt;=60,"C",IF(BA4&gt;=55,"D",IF(BA4&lt;54,"E")))))))</f>
+        <f t="shared" ref="BB4:BB40" si="57">IF(BA4&gt;=80,"A",IF(BA4&gt;=75,"B+",IF(BA4&gt;=70,"B",IF(BA4&gt;=65,"C+",IF(BA4&gt;=60,"C",IF(BA4&gt;=55,"D",IF(BA4&lt;54,"E")))))))</f>
         <v>B</v>
       </c>
       <c r="BC4" s="3">
-        <f t="shared" ref="BC4:BC41" si="58">IF(BB4="A",4,IF(BB4="B+",3.5,IF(BB4="B",3,IF(BB4="C+",2.5,IF(BB4="C",2,IF(BB4="D",1,0))))))</f>
+        <f t="shared" ref="BC4:BC40" si="58">IF(BB4="A",4,IF(BB4="B+",3.5,IF(BB4="B",3,IF(BB4="C+",2.5,IF(BB4="C",2,IF(BB4="D",1,0))))))</f>
         <v>3</v>
       </c>
       <c r="BD4" s="3">
         <v>2</v>
       </c>
       <c r="BE4" s="12">
-        <f t="shared" ref="BE4:BE41" si="59">BC4*BD4</f>
+        <f t="shared" ref="BE4:BE40" si="59">BC4*BD4</f>
         <v>6</v>
       </c>
       <c r="BF4" s="3">
         <v>80</v>
       </c>
       <c r="BG4" s="4" t="str">
-        <f t="shared" ref="BG4:BG41" si="60">IF(BF4&gt;=80,"A",IF(BF4&gt;=75,"B+",IF(BF4&gt;=70,"B",IF(BF4&gt;=65,"C+",IF(BF4&gt;=60,"C",IF(BF4&gt;=55,"D",IF(BF4&lt;54,"E")))))))</f>
+        <f t="shared" ref="BG4:BG40" si="60">IF(BF4&gt;=80,"A",IF(BF4&gt;=75,"B+",IF(BF4&gt;=70,"B",IF(BF4&gt;=65,"C+",IF(BF4&gt;=60,"C",IF(BF4&gt;=55,"D",IF(BF4&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="BH4" s="3">
-        <f t="shared" ref="BH4:BH41" si="61">IF(BG4="A",4,IF(BG4="B+",3.5,IF(BG4="B",3,IF(BG4="C+",2.5,IF(BG4="C",2,IF(BG4="D",1,0))))))</f>
+        <f t="shared" ref="BH4:BH40" si="61">IF(BG4="A",4,IF(BG4="B+",3.5,IF(BG4="B",3,IF(BG4="C+",2.5,IF(BG4="C",2,IF(BG4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="BI4" s="3">
         <v>2</v>
       </c>
       <c r="BJ4" s="12">
-        <f t="shared" ref="BJ4:BJ41" si="62">BH4*BI4</f>
+        <f t="shared" ref="BJ4:BJ40" si="62">BH4*BI4</f>
         <v>8</v>
       </c>
       <c r="BK4" s="16">
         <v>81.680000000000007</v>
       </c>
       <c r="BL4" s="4" t="str">
-        <f t="shared" ref="BL4:BL41" si="63">IF(BK4&gt;=80,"A",IF(BK4&gt;=75,"B+",IF(BK4&gt;=70,"B",IF(BK4&gt;=65,"C+",IF(BK4&gt;=60,"C",IF(BK4&gt;=55,"D",IF(BK4&lt;54,"E")))))))</f>
+        <f t="shared" ref="BL4:BL40" si="63">IF(BK4&gt;=80,"A",IF(BK4&gt;=75,"B+",IF(BK4&gt;=70,"B",IF(BK4&gt;=65,"C+",IF(BK4&gt;=60,"C",IF(BK4&gt;=55,"D",IF(BK4&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="BM4" s="3">
-        <f t="shared" ref="BM4:BM41" si="64">IF(BL4="A",4,IF(BL4="B+",3.5,IF(BL4="B",3,IF(BL4="C+",2.5,IF(BL4="C",2,IF(BL4="D",1,0))))))</f>
+        <f t="shared" ref="BM4:BM40" si="64">IF(BL4="A",4,IF(BL4="B+",3.5,IF(BL4="B",3,IF(BL4="C+",2.5,IF(BL4="C",2,IF(BL4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="BN4" s="3">
         <v>2</v>
       </c>
       <c r="BO4" s="12">
-        <f t="shared" ref="BO4:BO41" si="65">BM4*BN4</f>
+        <f t="shared" ref="BO4:BO40" si="65">BM4*BN4</f>
         <v>8</v>
       </c>
       <c r="BP4" s="19">
         <v>79.349999999999994</v>
       </c>
       <c r="BQ4" s="4" t="str">
-        <f t="shared" ref="BQ4:BQ41" si="66">IF(BP4&gt;=80,"A",IF(BP4&gt;=75,"B+",IF(BP4&gt;=70,"B",IF(BP4&gt;=65,"C+",IF(BP4&gt;=60,"C",IF(BP4&gt;=55,"D",IF(BP4&lt;54,"E")))))))</f>
+        <f t="shared" ref="BQ4:BQ40" si="66">IF(BP4&gt;=80,"A",IF(BP4&gt;=75,"B+",IF(BP4&gt;=70,"B",IF(BP4&gt;=65,"C+",IF(BP4&gt;=60,"C",IF(BP4&gt;=55,"D",IF(BP4&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="BR4" s="3">
-        <f t="shared" ref="BR4:BR41" si="67">IF(BQ4="A",4,IF(BQ4="B+",3.5,IF(BQ4="B",3,IF(BQ4="C+",2.5,IF(BQ4="C",2,IF(BQ4="D",1,0))))))</f>
+        <f t="shared" ref="BR4:BR40" si="67">IF(BQ4="A",4,IF(BQ4="B+",3.5,IF(BQ4="B",3,IF(BQ4="C+",2.5,IF(BQ4="C",2,IF(BQ4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="BS4" s="3">
         <v>2</v>
       </c>
       <c r="BT4" s="12">
-        <f t="shared" ref="BT4:BT41" si="68">BR4*BS4</f>
+        <f t="shared" ref="BT4:BT40" si="68">BR4*BS4</f>
         <v>7</v>
       </c>
       <c r="BU4" s="5">
         <v>79.599999999999994</v>
       </c>
       <c r="BV4" s="4" t="str">
-        <f t="shared" ref="BV4:BV41" si="69">IF(BU4&gt;=80,"A",IF(BU4&gt;=75,"B+",IF(BU4&gt;=70,"B",IF(BU4&gt;=65,"C+",IF(BU4&gt;=60,"C",IF(BU4&gt;=55,"D",IF(BU4&lt;54,"E")))))))</f>
+        <f t="shared" ref="BV4:BV40" si="69">IF(BU4&gt;=80,"A",IF(BU4&gt;=75,"B+",IF(BU4&gt;=70,"B",IF(BU4&gt;=65,"C+",IF(BU4&gt;=60,"C",IF(BU4&gt;=55,"D",IF(BU4&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="BW4" s="3">
-        <f t="shared" ref="BW4:BW41" si="70">IF(BV4="A",4,IF(BV4="B+",3.5,IF(BV4="B",3,IF(BV4="C+",2.5,IF(BV4="C",2,IF(BV4="D",1,0))))))</f>
+        <f t="shared" ref="BW4:BW40" si="70">IF(BV4="A",4,IF(BV4="B+",3.5,IF(BV4="B",3,IF(BV4="C+",2.5,IF(BV4="C",2,IF(BV4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="BX4" s="3">
         <v>2</v>
       </c>
       <c r="BY4" s="12">
-        <f t="shared" ref="BY4:BY41" si="71">BW4*BX4</f>
+        <f t="shared" ref="BY4:BY40" si="71">BW4*BX4</f>
         <v>7</v>
       </c>
       <c r="BZ4" s="14">
@@ -2626,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="CD4" s="12">
-        <f t="shared" ref="CD4:CD41" si="72">CB4*CC4</f>
+        <f t="shared" ref="CD4:CD40" si="72">CB4*CC4</f>
         <v>7</v>
       </c>
       <c r="CE4" s="20">
@@ -2637,14 +2768,14 @@
         <v>B+</v>
       </c>
       <c r="CG4" s="3">
-        <f t="shared" ref="CG4:CG41" si="73">IF(CF4="A",4,IF(CF4="B+",3.5,IF(CF4="B",3,IF(CF4="C+",2.5,IF(CF4="C",2,IF(CF4="D",1,0))))))</f>
+        <f t="shared" ref="CG4:CG40" si="73">IF(CF4="A",4,IF(CF4="B+",3.5,IF(CF4="B",3,IF(CF4="C+",2.5,IF(CF4="C",2,IF(CF4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="CH4" s="3">
         <v>2</v>
       </c>
       <c r="CI4" s="12">
-        <f t="shared" ref="CI4:CI41" si="74">CG4*CH4</f>
+        <f t="shared" ref="CI4:CI40" si="74">CG4*CH4</f>
         <v>7</v>
       </c>
       <c r="CJ4" s="6">
@@ -2655,14 +2786,14 @@
         <v>B+</v>
       </c>
       <c r="CL4" s="3">
-        <f t="shared" ref="CL4:CL41" si="75">IF(CK4="A",4,IF(CK4="B+",3.5,IF(CK4="B",3,IF(CK4="C+",2.5,IF(CK4="C",2,IF(CK4="D",1,0))))))</f>
+        <f t="shared" ref="CL4:CL40" si="75">IF(CK4="A",4,IF(CK4="B+",3.5,IF(CK4="B",3,IF(CK4="C+",2.5,IF(CK4="C",2,IF(CK4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="CM4" s="3">
         <v>2</v>
       </c>
       <c r="CN4" s="12">
-        <f t="shared" ref="CN4:CN41" si="76">CL4*CM4</f>
+        <f t="shared" ref="CN4:CN40" si="76">CL4*CM4</f>
         <v>7</v>
       </c>
       <c r="CO4" s="7">
@@ -2680,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="CS4" s="12">
-        <f t="shared" ref="CS4:CS41" si="77">CQ4*CR4</f>
+        <f t="shared" ref="CS4:CS40" si="77">CQ4*CR4</f>
         <v>6</v>
       </c>
       <c r="CT4" s="15">
@@ -2691,14 +2822,14 @@
         <v>A</v>
       </c>
       <c r="CV4" s="3">
-        <f t="shared" ref="CV4:CV41" si="78">IF(CU4="A",4,IF(CU4="B+",3.5,IF(CU4="B",3,IF(CU4="C+",2.5,IF(CU4="C",2,IF(CU4="D",1,0))))))</f>
+        <f t="shared" ref="CV4:CV40" si="78">IF(CU4="A",4,IF(CU4="B+",3.5,IF(CU4="B",3,IF(CU4="C+",2.5,IF(CU4="C",2,IF(CU4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="CW4" s="3">
         <v>2</v>
       </c>
       <c r="CX4" s="12">
-        <f t="shared" ref="CX4:CX41" si="79">CV4*CW4</f>
+        <f t="shared" ref="CX4:CX40" si="79">CV4*CW4</f>
         <v>8</v>
       </c>
       <c r="CY4" s="8">
@@ -2709,14 +2840,14 @@
         <v>A</v>
       </c>
       <c r="DA4" s="3">
-        <f t="shared" ref="DA4:DA41" si="80">IF(CZ4="A",4,IF(CZ4="B+",3.5,IF(CZ4="B",3,IF(CZ4="C+",2.5,IF(CZ4="C",2,IF(CZ4="D",1,0))))))</f>
+        <f t="shared" ref="DA4:DA40" si="80">IF(CZ4="A",4,IF(CZ4="B+",3.5,IF(CZ4="B",3,IF(CZ4="C+",2.5,IF(CZ4="C",2,IF(CZ4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="DB4" s="3">
         <v>2</v>
       </c>
       <c r="DC4" s="12">
-        <f t="shared" ref="DC4:DC41" si="81">DA4*DB4</f>
+        <f t="shared" ref="DC4:DC40" si="81">DA4*DB4</f>
         <v>8</v>
       </c>
       <c r="DD4" s="3">
@@ -2727,14 +2858,14 @@
         <v>B+</v>
       </c>
       <c r="DF4" s="3">
-        <f t="shared" ref="DF4:DF41" si="82">IF(DE4="A",4,IF(DE4="B+",3.5,IF(DE4="B",3,IF(DE4="C+",2.5,IF(DE4="C",2,IF(DE4="D",1,0))))))</f>
+        <f t="shared" ref="DF4:DF40" si="82">IF(DE4="A",4,IF(DE4="B+",3.5,IF(DE4="B",3,IF(DE4="C+",2.5,IF(DE4="C",2,IF(DE4="D",1,0))))))</f>
         <v>3.5</v>
       </c>
       <c r="DG4" s="3">
         <v>2</v>
       </c>
       <c r="DH4" s="12">
-        <f t="shared" ref="DH4:DH41" si="83">DF4*DG4</f>
+        <f t="shared" ref="DH4:DH40" si="83">DF4*DG4</f>
         <v>7</v>
       </c>
       <c r="DI4" s="3">
@@ -2745,14 +2876,14 @@
         <v>A</v>
       </c>
       <c r="DK4" s="3">
-        <f t="shared" ref="DK4:DK41" si="84">IF(DJ4="A",4,IF(DJ4="B+",3.5,IF(DJ4="B",3,IF(DJ4="C+",2.5,IF(DJ4="C",2,IF(DJ4="D",1,0))))))</f>
+        <f t="shared" ref="DK4:DK40" si="84">IF(DJ4="A",4,IF(DJ4="B+",3.5,IF(DJ4="B",3,IF(DJ4="C+",2.5,IF(DJ4="C",2,IF(DJ4="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="DL4" s="3">
         <v>4</v>
       </c>
       <c r="DM4" s="12">
-        <f t="shared" ref="DM4:DM41" si="85">DK4*DL4</f>
+        <f t="shared" ref="DM4:DM40" si="85">DK4*DL4</f>
         <v>16</v>
       </c>
       <c r="DN4" s="3">
@@ -2780,18 +2911,18 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="DV4" s="12" t="str">
-        <f t="shared" ref="DV4:DV41" si="86">IF(DU4&gt;=3.51,"Cum Laude",(IF(DU4&gt;=2.75,"Sangat Memuaskan",(IF(DU4&gt;=2,"Memuaskan","GAGAL")))))</f>
+        <f t="shared" ref="DV4:DV40" si="86">IF(DU4&gt;=3.51,"Cum Laude",(IF(DU4&gt;=2.75,"Sangat Memuaskan",(IF(DU4&gt;=2,"Memuaskan","GAGAL")))))</f>
         <v>Cum Laude</v>
       </c>
       <c r="DW4" s="12" t="str">
-        <f t="shared" ref="DW4:DW41" si="87">IF(DU4&gt;=3.51,"Excellent",(IF(DU4&gt;=2.75,"Highly Satisfactory",(IF(DU4&gt;=2,"Satisfactory","FAILED")))))</f>
+        <f t="shared" ref="DW4:DW40" si="87">IF(DU4&gt;=3.51,"Excellent",(IF(DU4&gt;=2.75,"Highly Satisfactory",(IF(DU4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
       <c r="DX4" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="DY4" s="34" t="s">
-        <v>185</v>
+        <v>166</v>
+      </c>
+      <c r="DY4" s="26" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.25">
@@ -2805,13 +2936,17 @@
         <v>172312022</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>226</v>
+      </c>
       <c r="H5" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -3241,10 +3376,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX5" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY5" s="34" t="s">
-        <v>186</v>
+        <v>143</v>
+      </c>
+      <c r="DY5" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3258,13 +3393,17 @@
         <v>172312023</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>227</v>
+      </c>
       <c r="H6" s="6">
         <v>80.666666666666671</v>
       </c>
@@ -3694,10 +3833,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX6" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="DY6" s="34" t="s">
-        <v>187</v>
+        <v>167</v>
+      </c>
+      <c r="DY6" s="26" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.25">
@@ -3711,13 +3850,17 @@
         <v>172312024</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>260</v>
+      </c>
       <c r="H7" s="6">
         <v>76.266666666666666</v>
       </c>
@@ -4147,10 +4290,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX7" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="DY7" s="34" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="DY7" s="26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4164,13 +4307,17 @@
         <v>172312025</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>258</v>
+      </c>
       <c r="H8" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -4600,10 +4747,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX8" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="DY8" s="34" t="s">
-        <v>189</v>
+        <v>169</v>
+      </c>
+      <c r="DY8" s="26" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -4617,13 +4764,17 @@
         <v>172312026</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="H9" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -5053,10 +5204,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX9" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY9" s="34" t="s">
-        <v>190</v>
+        <v>161</v>
+      </c>
+      <c r="DY9" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5070,13 +5221,17 @@
         <v>172312027</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>229</v>
+      </c>
       <c r="H10" s="6">
         <v>80.2</v>
       </c>
@@ -5506,10 +5661,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX10" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="DY10" s="34" t="s">
-        <v>191</v>
+        <v>144</v>
+      </c>
+      <c r="DY10" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5523,13 +5678,17 @@
         <v>172312028</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>230</v>
+      </c>
       <c r="H11" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -5959,10 +6118,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX11" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY11" s="34" t="s">
-        <v>192</v>
+        <v>162</v>
+      </c>
+      <c r="DY11" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.25">
@@ -5976,13 +6135,17 @@
         <v>172312029</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>259</v>
+      </c>
       <c r="H12" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -6412,10 +6575,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX12" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY12" s="34" t="s">
-        <v>193</v>
+        <v>170</v>
+      </c>
+      <c r="DY12" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.25">
@@ -6429,13 +6592,17 @@
         <v>172312030</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>231</v>
+      </c>
       <c r="H13" s="6">
         <v>80.533333333333331</v>
       </c>
@@ -6865,10 +7032,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX13" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY13" s="34" t="s">
-        <v>194</v>
+        <v>171</v>
+      </c>
+      <c r="DY13" s="26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.25">
@@ -6882,13 +7049,17 @@
         <v>172312031</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>232</v>
+      </c>
       <c r="H14" s="6">
         <v>80</v>
       </c>
@@ -7318,10 +7489,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX14" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY14" s="34" t="s">
-        <v>195</v>
+        <v>172</v>
+      </c>
+      <c r="DY14" s="26" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7335,13 +7506,17 @@
         <v>172312032</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>233</v>
+      </c>
       <c r="H15" s="6">
         <v>80.533333333333331</v>
       </c>
@@ -7598,7 +7773,7 @@
         <v>81</v>
       </c>
       <c r="CA15" s="4" t="str">
-        <f t="shared" ref="CA15:CA41" si="88">IF(BZ15&gt;=80,"A",IF(BZ15&gt;=75,"B+",IF(BZ15&gt;=70,"B",IF(BZ15&gt;=65,"C+",IF(BZ15&gt;=60,"C",IF(BZ15&gt;=55,"D",IF(BZ15&lt;54,"E")))))))</f>
+        <f t="shared" ref="CA15:CA40" si="88">IF(BZ15&gt;=80,"A",IF(BZ15&gt;=75,"B+",IF(BZ15&gt;=70,"B",IF(BZ15&gt;=65,"C+",IF(BZ15&gt;=60,"C",IF(BZ15&gt;=55,"D",IF(BZ15&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="CB15" s="3">
@@ -7652,7 +7827,7 @@
         <v>73.599999999999994</v>
       </c>
       <c r="CP15" s="4" t="str">
-        <f t="shared" ref="CP15:CP41" si="90">IF(CO15&gt;=80,"A",IF(CO15&gt;=75,"B+",IF(CO15&gt;=70,"B",IF(CO15&gt;=65,"C+",IF(CO15&gt;=60,"C",IF(CO15&gt;=55,"D",IF(CO15&lt;54,"E")))))))</f>
+        <f t="shared" ref="CP15:CP40" si="90">IF(CO15&gt;=80,"A",IF(CO15&gt;=75,"B+",IF(CO15&gt;=70,"B",IF(CO15&gt;=65,"C+",IF(CO15&gt;=60,"C",IF(CO15&gt;=55,"D",IF(CO15&lt;54,"E")))))))</f>
         <v>B</v>
       </c>
       <c r="CQ15" s="3">
@@ -7771,10 +7946,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX15" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="DY15" s="34" t="s">
-        <v>196</v>
+        <v>173</v>
+      </c>
+      <c r="DY15" s="26" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.25">
@@ -7788,13 +7963,17 @@
         <v>172312033</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>234</v>
+      </c>
       <c r="H16" s="6">
         <v>80.133333333333326</v>
       </c>
@@ -8055,7 +8234,7 @@
         <v>A</v>
       </c>
       <c r="CB16" s="3">
-        <f t="shared" ref="CB16:CB41" si="92">IF(CA16="A",4,IF(CA16="B+",3.5,IF(CA16="B",3,IF(CA16="C+",2.5,IF(CA16="C",2,IF(CA16="D",1,0))))))</f>
+        <f t="shared" ref="CB16:CB40" si="92">IF(CA16="A",4,IF(CA16="B+",3.5,IF(CA16="B",3,IF(CA16="C+",2.5,IF(CA16="C",2,IF(CA16="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="CC16" s="3">
@@ -8109,7 +8288,7 @@
         <v>A</v>
       </c>
       <c r="CQ16" s="3">
-        <f t="shared" ref="CQ16:CQ41" si="93">IF(CP16="A",4,IF(CP16="B+",3.5,IF(CP16="B",3,IF(CP16="C+",2.5,IF(CP16="C",2,IF(CP16="D",1,0))))))</f>
+        <f t="shared" ref="CQ16:CQ40" si="93">IF(CP16="A",4,IF(CP16="B+",3.5,IF(CP16="B",3,IF(CP16="C+",2.5,IF(CP16="C",2,IF(CP16="D",1,0))))))</f>
         <v>4</v>
       </c>
       <c r="CR16" s="3">
@@ -8224,10 +8403,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX16" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="DY16" s="34" t="s">
-        <v>197</v>
+        <v>145</v>
+      </c>
+      <c r="DY16" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.25">
@@ -8241,13 +8420,17 @@
         <v>172312034</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>235</v>
+      </c>
       <c r="H17" s="6">
         <v>80.26666666666668</v>
       </c>
@@ -8677,10 +8860,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX17" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="DY17" s="34" t="s">
-        <v>198</v>
+        <v>146</v>
+      </c>
+      <c r="DY17" s="26" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.25">
@@ -8694,13 +8877,17 @@
         <v>172312035</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>236</v>
+      </c>
       <c r="H18" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -9130,10 +9317,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX18" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY18" s="34" t="s">
-        <v>199</v>
+        <v>147</v>
+      </c>
+      <c r="DY18" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.25">
@@ -9147,13 +9334,17 @@
         <v>172312036</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>237</v>
+      </c>
       <c r="H19" s="6">
         <v>80.26666666666668</v>
       </c>
@@ -9583,10 +9774,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY19" s="34" t="s">
-        <v>200</v>
+        <v>148</v>
+      </c>
+      <c r="DY19" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.25">
@@ -9600,13 +9791,17 @@
         <v>172312037</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>238</v>
+      </c>
       <c r="H20" s="6">
         <v>80.333333333333343</v>
       </c>
@@ -10036,10 +10231,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX20" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="DY20" s="34" t="s">
-        <v>201</v>
+        <v>174</v>
+      </c>
+      <c r="DY20" s="26" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:129" x14ac:dyDescent="0.25">
@@ -10053,13 +10248,17 @@
         <v>172312038</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>261</v>
+      </c>
       <c r="H21" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -10489,10 +10688,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX21" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="DY21" s="34" t="s">
-        <v>202</v>
+        <v>149</v>
+      </c>
+      <c r="DY21" s="26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:129" x14ac:dyDescent="0.25">
@@ -10506,13 +10705,17 @@
         <v>172312039</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>239</v>
+      </c>
       <c r="H22" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -10942,10 +11145,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX22" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="DY22" s="34" t="s">
-        <v>203</v>
+        <v>150</v>
+      </c>
+      <c r="DY22" s="26" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:129" x14ac:dyDescent="0.25">
@@ -10959,13 +11162,17 @@
         <v>172312040</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>240</v>
+      </c>
       <c r="H23" s="6">
         <v>80</v>
       </c>
@@ -11395,10 +11602,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX23" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="DY23" s="34" t="s">
-        <v>204</v>
+        <v>175</v>
+      </c>
+      <c r="DY23" s="26" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:129" x14ac:dyDescent="0.25">
@@ -11412,13 +11619,17 @@
         <v>172312041</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>241</v>
+      </c>
       <c r="H24" s="6">
         <v>76.866666666666674</v>
       </c>
@@ -11848,10 +12059,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX24" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="DY24" s="34" t="s">
-        <v>205</v>
+        <v>151</v>
+      </c>
+      <c r="DY24" s="26" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.25">
@@ -11865,13 +12076,17 @@
         <v>172312042</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>242</v>
+      </c>
       <c r="H25" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -12301,10 +12516,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX25" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="DY25" s="34" t="s">
-        <v>206</v>
+        <v>176</v>
+      </c>
+      <c r="DY25" s="26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.25">
@@ -12318,13 +12533,17 @@
         <v>172312043</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>243</v>
+      </c>
       <c r="H26" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -12754,10 +12973,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX26" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="DY26" s="34" t="s">
-        <v>207</v>
+        <v>152</v>
+      </c>
+      <c r="DY26" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -12771,13 +12990,17 @@
         <v>172312044</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>244</v>
+      </c>
       <c r="H27" s="6">
         <v>76.333333333333329</v>
       </c>
@@ -13207,10 +13430,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX27" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="DY27" s="34" t="s">
-        <v>208</v>
+        <v>153</v>
+      </c>
+      <c r="DY27" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -13224,13 +13447,17 @@
         <v>172312045</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>245</v>
+      </c>
       <c r="H28" s="16">
         <v>76.866666666666674</v>
       </c>
@@ -13660,10 +13887,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX28" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="DY28" s="34" t="s">
-        <v>209</v>
+        <v>163</v>
+      </c>
+      <c r="DY28" s="26" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.25">
@@ -13677,13 +13904,17 @@
         <v>172312046</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>246</v>
+      </c>
       <c r="H29" s="16">
         <v>76.333333333333329</v>
       </c>
@@ -14113,10 +14344,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="DY29" s="34" t="s">
-        <v>210</v>
+        <v>154</v>
+      </c>
+      <c r="DY29" s="26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:129" x14ac:dyDescent="0.25">
@@ -14130,13 +14361,17 @@
         <v>172312047</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>247</v>
+      </c>
       <c r="H30" s="16">
         <v>76.333333333333329</v>
       </c>
@@ -14566,10 +14801,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX30" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="DY30" s="34" t="s">
-        <v>211</v>
+        <v>155</v>
+      </c>
+      <c r="DY30" s="26" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.25">
@@ -14583,13 +14818,17 @@
         <v>172312048</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>248</v>
+      </c>
       <c r="H31" s="16">
         <v>76.333333333333329</v>
       </c>
@@ -15019,10 +15258,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX31" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY31" s="34" t="s">
-        <v>212</v>
+        <v>156</v>
+      </c>
+      <c r="DY31" s="26" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -15036,13 +15275,17 @@
         <v>172312049</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>249</v>
+      </c>
       <c r="H32" s="16">
         <v>76.333333333333329</v>
       </c>
@@ -15472,10 +15715,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX32" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="DY32" s="34" t="s">
-        <v>213</v>
+        <v>177</v>
+      </c>
+      <c r="DY32" s="26" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:129" x14ac:dyDescent="0.25">
@@ -15489,13 +15732,17 @@
         <v>172312050</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>250</v>
+      </c>
       <c r="H33" s="16">
         <v>80.133333333333326</v>
       </c>
@@ -15925,10 +16172,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX33" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="DY33" s="34" t="s">
-        <v>214</v>
+        <v>157</v>
+      </c>
+      <c r="DY33" s="26" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -15942,13 +16189,17 @@
         <v>172312051</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="H34" s="16">
         <v>76.333333333333329</v>
       </c>
@@ -16378,10 +16629,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX34" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="DY34" s="34" t="s">
-        <v>215</v>
+        <v>178</v>
+      </c>
+      <c r="DY34" s="26" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:129" x14ac:dyDescent="0.25">
@@ -16395,13 +16646,17 @@
         <v>172312052</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>252</v>
+      </c>
       <c r="H35" s="16">
         <v>76.333333333333329</v>
       </c>
@@ -16831,10 +17086,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX35" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="DY35" s="34" t="s">
-        <v>216</v>
+        <v>158</v>
+      </c>
+      <c r="DY35" s="26" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -16848,13 +17103,17 @@
         <v>172312053</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="H36" s="16">
         <v>80</v>
       </c>
@@ -17284,10 +17543,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX36" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DY36" s="34" t="s">
-        <v>217</v>
+        <v>164</v>
+      </c>
+      <c r="DY36" s="26" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.25">
@@ -17301,13 +17560,17 @@
         <v>172312054</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>254</v>
+      </c>
       <c r="H37" s="16">
         <v>76.333333333333329</v>
       </c>
@@ -17737,10 +18000,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX37" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="DY37" s="34" t="s">
-        <v>218</v>
+        <v>179</v>
+      </c>
+      <c r="DY37" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.25">
@@ -17754,13 +18017,17 @@
         <v>172312055</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>255</v>
+      </c>
       <c r="H38" s="16">
         <v>80.333333333333343</v>
       </c>
@@ -18190,28 +18457,36 @@
         <v>Excellent</v>
       </c>
       <c r="DX38" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="DY38" s="34" t="s">
-        <v>219</v>
+        <v>159</v>
+      </c>
+      <c r="DY38" s="26" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="2">
-        <v>172312056</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+        <v>172312057</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>256</v>
+      </c>
       <c r="H39" s="16">
-        <v>77.933333333333337</v>
+        <v>76.866666666666674</v>
       </c>
       <c r="I39" s="4" t="str">
         <f t="shared" si="30"/>
@@ -18229,7 +18504,7 @@
         <v>7</v>
       </c>
       <c r="M39" s="19">
-        <v>83.433333333333337</v>
+        <v>82.366666666666674</v>
       </c>
       <c r="N39" s="4" t="str">
         <f t="shared" si="33"/>
@@ -18247,7 +18522,7 @@
         <v>8</v>
       </c>
       <c r="R39" s="6">
-        <v>78.800000000000011</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="S39" s="4" t="str">
         <f t="shared" si="36"/>
@@ -18283,7 +18558,7 @@
         <v>12</v>
       </c>
       <c r="AB39" s="6">
-        <v>75.5</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="AC39" s="4" t="str">
         <f t="shared" si="42"/>
@@ -18301,7 +18576,7 @@
         <v>7</v>
       </c>
       <c r="AG39" s="6">
-        <v>83.433333333333337</v>
+        <v>82.366666666666674</v>
       </c>
       <c r="AH39" s="4" t="str">
         <f t="shared" si="45"/>
@@ -18337,7 +18612,7 @@
         <v>7</v>
       </c>
       <c r="AQ39" s="14">
-        <v>83.966666666666669</v>
+        <v>86.233333333333334</v>
       </c>
       <c r="AR39" s="4" t="str">
         <f t="shared" si="51"/>
@@ -18373,7 +18648,7 @@
         <v>7.5</v>
       </c>
       <c r="BA39" s="3">
-        <v>70.724999999999994</v>
+        <v>72.325000000000003</v>
       </c>
       <c r="BB39" s="4" t="str">
         <f t="shared" si="57"/>
@@ -18391,7 +18666,7 @@
         <v>6</v>
       </c>
       <c r="BF39" s="3">
-        <v>80</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="BG39" s="4" t="str">
         <f t="shared" si="60"/>
@@ -18409,7 +18684,7 @@
         <v>8</v>
       </c>
       <c r="BK39" s="16">
-        <v>78.960000000000008</v>
+        <v>78.08</v>
       </c>
       <c r="BL39" s="4" t="str">
         <f t="shared" si="63"/>
@@ -18427,43 +18702,43 @@
         <v>7</v>
       </c>
       <c r="BP39" s="19">
-        <v>73.849999999999994</v>
+        <v>78.75</v>
       </c>
       <c r="BQ39" s="4" t="str">
         <f t="shared" si="66"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="BR39" s="3">
         <f t="shared" si="67"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BS39" s="3">
         <v>2</v>
       </c>
       <c r="BT39" s="12">
         <f t="shared" si="68"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BU39" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BV39" s="4" t="str">
         <f t="shared" si="69"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="BW39" s="3">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BX39" s="3">
         <v>2</v>
       </c>
       <c r="BY39" s="12">
         <f t="shared" si="71"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BZ39" s="3">
-        <v>78.599999999999994</v>
+        <v>79</v>
       </c>
       <c r="CA39" s="4" t="str">
         <f t="shared" si="88"/>
@@ -18481,7 +18756,7 @@
         <v>7</v>
       </c>
       <c r="CE39" s="6">
-        <v>76.8</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="CF39" s="4" t="str">
         <f t="shared" si="16"/>
@@ -18499,7 +18774,7 @@
         <v>7</v>
       </c>
       <c r="CJ39" s="6">
-        <v>76.125</v>
+        <v>75.325000000000003</v>
       </c>
       <c r="CK39" s="4" t="str">
         <f t="shared" si="18"/>
@@ -18517,7 +18792,7 @@
         <v>7</v>
       </c>
       <c r="CO39" s="7">
-        <v>70.2</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="CP39" s="4" t="str">
         <f t="shared" si="90"/>
@@ -18535,76 +18810,76 @@
         <v>6</v>
       </c>
       <c r="CT39" s="14">
-        <v>77.95</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="CU39" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="CV39" s="3">
         <f t="shared" si="78"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="CW39" s="3">
         <v>2</v>
       </c>
       <c r="CX39" s="12">
         <f t="shared" si="79"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CY39" s="21">
-        <v>77.95</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="CZ39" s="4" t="str">
         <f t="shared" si="24"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="DA39" s="3">
         <f t="shared" si="80"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="DB39" s="3">
         <v>2</v>
       </c>
       <c r="DC39" s="12">
         <f t="shared" si="81"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DD39" s="3">
-        <v>74.7</v>
+        <v>76</v>
       </c>
       <c r="DE39" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="DF39" s="3">
         <f t="shared" si="82"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="DG39" s="3">
         <v>2</v>
       </c>
       <c r="DH39" s="12">
         <f t="shared" si="83"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DI39" s="3">
-        <v>70</v>
+        <v>78.8</v>
       </c>
       <c r="DJ39" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="DK39" s="3">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="DL39" s="3">
         <v>4</v>
       </c>
       <c r="DM39" s="12">
         <f t="shared" si="85"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DN39" s="3">
         <v>85.5</v>
@@ -18613,72 +18888,80 @@
         <v>24</v>
       </c>
       <c r="DP39" s="3">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="DQ39" s="3">
         <v>24</v>
       </c>
       <c r="DR39" s="3">
-        <v>163.5</v>
+        <v>170.5</v>
       </c>
       <c r="DS39" s="3">
         <v>48</v>
       </c>
       <c r="DT39" s="9">
-        <v>3.40625</v>
+        <v>3.5520833333333335</v>
       </c>
       <c r="DU39" s="9">
-        <v>3.40625</v>
+        <v>3.5520833333333335</v>
       </c>
       <c r="DV39" s="12" t="str">
         <f t="shared" si="86"/>
-        <v>Sangat Memuaskan</v>
+        <v>Cum Laude</v>
       </c>
       <c r="DW39" s="12" t="str">
         <f t="shared" si="87"/>
-        <v>Highly Satisfactory</v>
-      </c>
-      <c r="DX39" s="22"/>
-      <c r="DY39" s="34"/>
+        <v>Excellent</v>
+      </c>
+      <c r="DX39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="DY39" s="26" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="2">
-        <v>172312057</v>
+        <v>172312058</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>257</v>
+      </c>
       <c r="H40" s="16">
-        <v>76.866666666666674</v>
+        <v>80.066666666666663</v>
       </c>
       <c r="I40" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="31"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K40" s="3">
         <v>2</v>
       </c>
       <c r="L40" s="12">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M40" s="19">
-        <v>82.366666666666674</v>
+        <v>86.233333333333334</v>
       </c>
       <c r="N40" s="4" t="str">
         <f t="shared" si="33"/>
@@ -18732,25 +19015,25 @@
         <v>12</v>
       </c>
       <c r="AB40" s="6">
-        <v>75.900000000000006</v>
+        <v>83.200000000000017</v>
       </c>
       <c r="AC40" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="AD40" s="3">
         <f t="shared" si="43"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AE40" s="3">
         <v>2</v>
       </c>
       <c r="AF40" s="12">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG40" s="6">
-        <v>82.366666666666674</v>
+        <v>86.233333333333334</v>
       </c>
       <c r="AH40" s="4" t="str">
         <f t="shared" si="45"/>
@@ -18768,7 +19051,7 @@
         <v>8</v>
       </c>
       <c r="AL40" s="7">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="AM40" s="4" t="str">
         <f t="shared" si="48"/>
@@ -18786,7 +19069,7 @@
         <v>7</v>
       </c>
       <c r="AQ40" s="14">
-        <v>86.233333333333334</v>
+        <v>81.966666666666669</v>
       </c>
       <c r="AR40" s="4" t="str">
         <f t="shared" si="51"/>
@@ -18804,40 +19087,40 @@
         <v>8</v>
       </c>
       <c r="AV40" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW40" s="4" t="str">
         <f t="shared" si="54"/>
-        <v>C+</v>
+        <v>B</v>
       </c>
       <c r="AX40" s="3">
         <f t="shared" si="55"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AY40" s="3">
         <v>3</v>
       </c>
       <c r="AZ40" s="12">
         <f t="shared" si="56"/>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BA40" s="3">
-        <v>72.325000000000003</v>
+        <v>75.325000000000003</v>
       </c>
       <c r="BB40" s="4" t="str">
         <f t="shared" si="57"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="BC40" s="3">
         <f t="shared" si="58"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BD40" s="3">
         <v>2</v>
       </c>
       <c r="BE40" s="12">
         <f t="shared" si="59"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF40" s="3">
         <v>80.599999999999994</v>
@@ -18858,61 +19141,61 @@
         <v>8</v>
       </c>
       <c r="BK40" s="16">
-        <v>78.08</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="BL40" s="4" t="str">
         <f t="shared" si="63"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="BM40" s="3">
         <f t="shared" si="64"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BN40" s="3">
         <v>2</v>
       </c>
       <c r="BO40" s="12">
         <f t="shared" si="65"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP40" s="19">
-        <v>78.75</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="BQ40" s="4" t="str">
         <f t="shared" si="66"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="BR40" s="3">
         <f t="shared" si="67"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BS40" s="3">
         <v>2</v>
       </c>
       <c r="BT40" s="12">
         <f t="shared" si="68"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU40" s="6">
-        <v>75</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="BV40" s="4" t="str">
         <f t="shared" si="69"/>
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="BW40" s="3">
         <f t="shared" si="70"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BX40" s="3">
         <v>2</v>
       </c>
       <c r="BY40" s="12">
         <f t="shared" si="71"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BZ40" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CA40" s="4" t="str">
         <f t="shared" si="88"/>
@@ -18930,7 +19213,7 @@
         <v>7</v>
       </c>
       <c r="CE40" s="6">
-        <v>79.599999999999994</v>
+        <v>76.8</v>
       </c>
       <c r="CF40" s="4" t="str">
         <f t="shared" si="16"/>
@@ -18948,7 +19231,7 @@
         <v>7</v>
       </c>
       <c r="CJ40" s="6">
-        <v>75.325000000000003</v>
+        <v>75.924999999999997</v>
       </c>
       <c r="CK40" s="4" t="str">
         <f t="shared" si="18"/>
@@ -18966,7 +19249,7 @@
         <v>7</v>
       </c>
       <c r="CO40" s="7">
-        <v>71.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="CP40" s="4" t="str">
         <f t="shared" si="90"/>
@@ -18984,7 +19267,7 @@
         <v>6</v>
       </c>
       <c r="CT40" s="14">
-        <v>81.599999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="CU40" s="4" t="str">
         <f t="shared" si="22"/>
@@ -19002,7 +19285,7 @@
         <v>8</v>
       </c>
       <c r="CY40" s="21">
-        <v>81.599999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="CZ40" s="4" t="str">
         <f t="shared" si="24"/>
@@ -19020,7 +19303,7 @@
         <v>8</v>
       </c>
       <c r="DD40" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="DE40" s="4" t="str">
         <f t="shared" si="26"/>
@@ -19038,46 +19321,46 @@
         <v>7</v>
       </c>
       <c r="DI40" s="3">
-        <v>78.8</v>
+        <v>84.5</v>
       </c>
       <c r="DJ40" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="DK40" s="3">
         <f t="shared" si="84"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="DL40" s="3">
         <v>4</v>
       </c>
       <c r="DM40" s="12">
         <f t="shared" si="85"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DN40" s="3">
-        <v>85.5</v>
+        <v>90</v>
       </c>
       <c r="DO40" s="3">
         <v>24</v>
       </c>
       <c r="DP40" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="DQ40" s="3">
         <v>24</v>
       </c>
       <c r="DR40" s="3">
-        <v>170.5</v>
+        <v>178</v>
       </c>
       <c r="DS40" s="3">
         <v>48</v>
       </c>
       <c r="DT40" s="9">
-        <v>3.5520833333333335</v>
+        <v>3.7083333333333335</v>
       </c>
       <c r="DU40" s="9">
-        <v>3.5520833333333335</v>
+        <v>3.7083333333333335</v>
       </c>
       <c r="DV40" s="12" t="str">
         <f t="shared" si="86"/>
@@ -19090,465 +19373,35 @@
       <c r="DX40" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="DY40" s="34" t="s">
+      <c r="DY40" s="26" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="2">
-        <v>172312058</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="16">
-        <v>80.066666666666663</v>
-      </c>
-      <c r="I41" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>A</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2</v>
-      </c>
-      <c r="L41" s="12">
-        <f t="shared" si="32"/>
-        <v>8</v>
-      </c>
-      <c r="M41" s="19">
-        <v>86.233333333333334</v>
-      </c>
-      <c r="N41" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>A</v>
-      </c>
-      <c r="O41" s="3">
-        <f t="shared" si="34"/>
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="12">
-        <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="R41" s="6">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="S41" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>B+</v>
-      </c>
-      <c r="T41" s="3">
-        <f t="shared" si="37"/>
-        <v>3.5</v>
-      </c>
-      <c r="U41" s="3">
-        <v>2</v>
-      </c>
-      <c r="V41" s="12">
-        <f t="shared" si="38"/>
-        <v>7</v>
-      </c>
-      <c r="W41" s="3">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="X41" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>A</v>
-      </c>
-      <c r="Y41" s="3">
-        <f t="shared" si="40"/>
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA41" s="12">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="AB41" s="6">
-        <v>83.200000000000017</v>
-      </c>
-      <c r="AC41" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>A</v>
-      </c>
-      <c r="AD41" s="3">
-        <f t="shared" si="43"/>
-        <v>4</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="12">
-        <f t="shared" si="44"/>
-        <v>8</v>
-      </c>
-      <c r="AG41" s="6">
-        <v>86.233333333333334</v>
-      </c>
-      <c r="AH41" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>A</v>
-      </c>
-      <c r="AI41" s="3">
-        <f t="shared" si="46"/>
-        <v>4</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="12">
-        <f t="shared" si="47"/>
-        <v>8</v>
-      </c>
-      <c r="AL41" s="7">
-        <v>79.2</v>
-      </c>
-      <c r="AM41" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v>B+</v>
-      </c>
-      <c r="AN41" s="3">
-        <f t="shared" si="49"/>
-        <v>3.5</v>
-      </c>
-      <c r="AO41" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP41" s="12">
-        <f t="shared" si="50"/>
-        <v>7</v>
-      </c>
-      <c r="AQ41" s="14">
-        <v>81.966666666666669</v>
-      </c>
-      <c r="AR41" s="4" t="str">
-        <f t="shared" si="51"/>
-        <v>A</v>
-      </c>
-      <c r="AS41" s="3">
-        <f t="shared" si="52"/>
-        <v>4</v>
-      </c>
-      <c r="AT41" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU41" s="12">
-        <f t="shared" si="53"/>
-        <v>8</v>
-      </c>
-      <c r="AV41" s="9">
-        <v>71</v>
-      </c>
-      <c r="AW41" s="4" t="str">
-        <f t="shared" si="54"/>
-        <v>B</v>
-      </c>
-      <c r="AX41" s="3">
-        <f t="shared" si="55"/>
-        <v>3</v>
-      </c>
-      <c r="AY41" s="3">
-        <v>3</v>
-      </c>
-      <c r="AZ41" s="12">
-        <f t="shared" si="56"/>
-        <v>9</v>
-      </c>
-      <c r="BA41" s="3">
-        <v>75.325000000000003</v>
-      </c>
-      <c r="BB41" s="4" t="str">
-        <f t="shared" si="57"/>
-        <v>B+</v>
-      </c>
-      <c r="BC41" s="3">
-        <f t="shared" si="58"/>
-        <v>3.5</v>
-      </c>
-      <c r="BD41" s="3">
-        <v>2</v>
-      </c>
-      <c r="BE41" s="12">
-        <f t="shared" si="59"/>
-        <v>7</v>
-      </c>
-      <c r="BF41" s="3">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="BG41" s="4" t="str">
-        <f t="shared" si="60"/>
-        <v>A</v>
-      </c>
-      <c r="BH41" s="3">
-        <f t="shared" si="61"/>
-        <v>4</v>
-      </c>
-      <c r="BI41" s="3">
-        <v>2</v>
-      </c>
-      <c r="BJ41" s="12">
-        <f t="shared" si="62"/>
-        <v>8</v>
-      </c>
-      <c r="BK41" s="16">
-        <v>81.239999999999995</v>
-      </c>
-      <c r="BL41" s="4" t="str">
-        <f t="shared" si="63"/>
-        <v>A</v>
-      </c>
-      <c r="BM41" s="3">
-        <f t="shared" si="64"/>
-        <v>4</v>
-      </c>
-      <c r="BN41" s="3">
-        <v>2</v>
-      </c>
-      <c r="BO41" s="12">
-        <f t="shared" si="65"/>
-        <v>8</v>
-      </c>
-      <c r="BP41" s="19">
-        <v>80.349999999999994</v>
-      </c>
-      <c r="BQ41" s="4" t="str">
-        <f t="shared" si="66"/>
-        <v>A</v>
-      </c>
-      <c r="BR41" s="3">
-        <f t="shared" si="67"/>
-        <v>4</v>
-      </c>
-      <c r="BS41" s="3">
-        <v>2</v>
-      </c>
-      <c r="BT41" s="12">
-        <f t="shared" si="68"/>
-        <v>8</v>
-      </c>
-      <c r="BU41" s="6">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="BV41" s="4" t="str">
-        <f t="shared" si="69"/>
-        <v>B</v>
-      </c>
-      <c r="BW41" s="3">
-        <f t="shared" si="70"/>
-        <v>3</v>
-      </c>
-      <c r="BX41" s="3">
-        <v>2</v>
-      </c>
-      <c r="BY41" s="12">
-        <f t="shared" si="71"/>
-        <v>6</v>
-      </c>
-      <c r="BZ41" s="3">
-        <v>78</v>
-      </c>
-      <c r="CA41" s="4" t="str">
-        <f t="shared" si="88"/>
-        <v>B+</v>
-      </c>
-      <c r="CB41" s="3">
-        <f t="shared" si="92"/>
-        <v>3.5</v>
-      </c>
-      <c r="CC41" s="3">
-        <v>2</v>
-      </c>
-      <c r="CD41" s="12">
-        <f t="shared" si="72"/>
-        <v>7</v>
-      </c>
-      <c r="CE41" s="6">
-        <v>76.8</v>
-      </c>
-      <c r="CF41" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>B+</v>
-      </c>
-      <c r="CG41" s="3">
-        <f t="shared" si="73"/>
-        <v>3.5</v>
-      </c>
-      <c r="CH41" s="3">
-        <v>2</v>
-      </c>
-      <c r="CI41" s="12">
-        <f t="shared" si="74"/>
-        <v>7</v>
-      </c>
-      <c r="CJ41" s="6">
-        <v>75.924999999999997</v>
-      </c>
-      <c r="CK41" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>B+</v>
-      </c>
-      <c r="CL41" s="3">
-        <f t="shared" si="75"/>
-        <v>3.5</v>
-      </c>
-      <c r="CM41" s="3">
-        <v>2</v>
-      </c>
-      <c r="CN41" s="12">
-        <f t="shared" si="76"/>
-        <v>7</v>
-      </c>
-      <c r="CO41" s="7">
-        <v>72</v>
-      </c>
-      <c r="CP41" s="4" t="str">
-        <f t="shared" si="90"/>
-        <v>B</v>
-      </c>
-      <c r="CQ41" s="3">
-        <f t="shared" si="93"/>
-        <v>3</v>
-      </c>
-      <c r="CR41" s="3">
-        <v>2</v>
-      </c>
-      <c r="CS41" s="12">
-        <f t="shared" si="77"/>
-        <v>6</v>
-      </c>
-      <c r="CT41" s="14">
-        <v>80.2</v>
-      </c>
-      <c r="CU41" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>A</v>
-      </c>
-      <c r="CV41" s="3">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="CW41" s="3">
-        <v>2</v>
-      </c>
-      <c r="CX41" s="12">
-        <f t="shared" si="79"/>
-        <v>8</v>
-      </c>
-      <c r="CY41" s="21">
-        <v>80.2</v>
-      </c>
-      <c r="CZ41" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>A</v>
-      </c>
-      <c r="DA41" s="3">
-        <f t="shared" si="80"/>
-        <v>4</v>
-      </c>
-      <c r="DB41" s="3">
-        <v>2</v>
-      </c>
-      <c r="DC41" s="12">
-        <f t="shared" si="81"/>
-        <v>8</v>
-      </c>
-      <c r="DD41" s="3">
-        <v>78</v>
-      </c>
-      <c r="DE41" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>B+</v>
-      </c>
-      <c r="DF41" s="3">
-        <f t="shared" si="82"/>
-        <v>3.5</v>
-      </c>
-      <c r="DG41" s="3">
-        <v>2</v>
-      </c>
-      <c r="DH41" s="12">
-        <f t="shared" si="83"/>
-        <v>7</v>
-      </c>
-      <c r="DI41" s="3">
-        <v>84.5</v>
-      </c>
-      <c r="DJ41" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>A</v>
-      </c>
-      <c r="DK41" s="3">
-        <f t="shared" si="84"/>
-        <v>4</v>
-      </c>
-      <c r="DL41" s="3">
-        <v>4</v>
-      </c>
-      <c r="DM41" s="12">
-        <f t="shared" si="85"/>
-        <v>16</v>
-      </c>
-      <c r="DN41" s="3">
-        <v>90</v>
-      </c>
-      <c r="DO41" s="3">
-        <v>24</v>
-      </c>
-      <c r="DP41" s="3">
-        <v>88</v>
-      </c>
-      <c r="DQ41" s="3">
-        <v>24</v>
-      </c>
-      <c r="DR41" s="3">
-        <v>178</v>
-      </c>
-      <c r="DS41" s="3">
-        <v>48</v>
-      </c>
-      <c r="DT41" s="9">
-        <v>3.7083333333333335</v>
-      </c>
-      <c r="DU41" s="9">
-        <v>3.7083333333333335</v>
-      </c>
-      <c r="DV41" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v>Cum Laude</v>
-      </c>
-      <c r="DW41" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v>Excellent</v>
-      </c>
-      <c r="DX41" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="DY41" s="34" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="DV1:DV2"/>
+    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="DX1:DX2"/>
+    <mergeCell ref="DU1:DU2"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DP1:DQ1"/>
+    <mergeCell ref="DR1:DR2"/>
+    <mergeCell ref="DS1:DS2"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="R1:V1"/>
     <mergeCell ref="DY1:DY2"/>
     <mergeCell ref="DN1:DO1"/>
     <mergeCell ref="A1:A2"/>
@@ -19565,30 +19418,8 @@
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="DV1:DV2"/>
-    <mergeCell ref="DW1:DW2"/>
-    <mergeCell ref="DX1:DX2"/>
-    <mergeCell ref="DU1:DU2"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="DP1:DQ1"/>
-    <mergeCell ref="DR1:DR2"/>
-    <mergeCell ref="DS1:DS2"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
+++ b/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED1F55-89FB-49A8-A565-8364BC7978D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2B41FC-C447-406D-A0EB-9C92462ACE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
   </bookViews>
@@ -285,9 +285,6 @@
     <t>Judul</t>
   </si>
   <si>
-    <t>Pandang</t>
-  </si>
-  <si>
     <t>12 Februari 1998</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t xml:space="preserve"> 05 Februari 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">Muara Jarai </t>
-  </si>
-  <si>
     <t>02 Mei 1982</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>27 Mei 1971</t>
   </si>
   <si>
-    <t>Kahawetan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 20 April 1987</t>
   </si>
   <si>
@@ -820,6 +811,15 @@
   </si>
   <si>
     <t>976 / 11 / XI / 2025</t>
+  </si>
+  <si>
+    <t>Padang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muara Jalai </t>
+  </si>
+  <si>
+    <t>Kabawetan</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,6 +940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +979,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,6 +1057,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1069,15 +1079,14 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1397,11 +1406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC1C482-1510-43F8-A2D8-9629FAD08083}">
   <dimension ref="A1:DY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,222 +1453,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="28" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="28" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28" t="s">
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28" t="s">
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28" t="s">
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28" t="s">
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="29" t="s">
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="30" t="s">
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="28" t="s">
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28" t="s">
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28" t="s">
+      <c r="CA1" s="30"/>
+      <c r="CB1" s="30"/>
+      <c r="CC1" s="30"/>
+      <c r="CD1" s="30"/>
+      <c r="CE1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="28"/>
-      <c r="CH1" s="28"/>
-      <c r="CI1" s="28"/>
-      <c r="CJ1" s="29" t="s">
+      <c r="CF1" s="30"/>
+      <c r="CG1" s="30"/>
+      <c r="CH1" s="30"/>
+      <c r="CI1" s="30"/>
+      <c r="CJ1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="29"/>
-      <c r="CN1" s="29"/>
-      <c r="CO1" s="28" t="s">
+      <c r="CK1" s="31"/>
+      <c r="CL1" s="31"/>
+      <c r="CM1" s="31"/>
+      <c r="CN1" s="31"/>
+      <c r="CO1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="28"/>
-      <c r="CR1" s="28"/>
-      <c r="CS1" s="28"/>
-      <c r="CT1" s="28" t="s">
+      <c r="CP1" s="30"/>
+      <c r="CQ1" s="30"/>
+      <c r="CR1" s="30"/>
+      <c r="CS1" s="30"/>
+      <c r="CT1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="CU1" s="28"/>
-      <c r="CV1" s="28"/>
-      <c r="CW1" s="28"/>
-      <c r="CX1" s="28"/>
-      <c r="CY1" s="28" t="s">
+      <c r="CU1" s="30"/>
+      <c r="CV1" s="30"/>
+      <c r="CW1" s="30"/>
+      <c r="CX1" s="30"/>
+      <c r="CY1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CZ1" s="28"/>
-      <c r="DA1" s="28"/>
-      <c r="DB1" s="28"/>
-      <c r="DC1" s="28"/>
-      <c r="DD1" s="28" t="s">
+      <c r="CZ1" s="30"/>
+      <c r="DA1" s="30"/>
+      <c r="DB1" s="30"/>
+      <c r="DC1" s="30"/>
+      <c r="DD1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="DE1" s="28"/>
-      <c r="DF1" s="28"/>
-      <c r="DG1" s="28"/>
-      <c r="DH1" s="28"/>
-      <c r="DI1" s="28" t="s">
+      <c r="DE1" s="30"/>
+      <c r="DF1" s="30"/>
+      <c r="DG1" s="30"/>
+      <c r="DH1" s="30"/>
+      <c r="DI1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="DJ1" s="28"/>
-      <c r="DK1" s="28"/>
-      <c r="DL1" s="28"/>
-      <c r="DM1" s="28"/>
-      <c r="DN1" s="28" t="s">
+      <c r="DJ1" s="30"/>
+      <c r="DK1" s="30"/>
+      <c r="DL1" s="30"/>
+      <c r="DM1" s="30"/>
+      <c r="DN1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="DO1" s="28"/>
-      <c r="DP1" s="33" t="s">
+      <c r="DO1" s="30"/>
+      <c r="DP1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="DQ1" s="33"/>
-      <c r="DR1" s="33" t="s">
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DS1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="DT1" s="28" t="s">
+      <c r="DT1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="DU1" s="28" t="s">
+      <c r="DU1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DV1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="DW1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="DX1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="DY1" s="27" t="s">
-        <v>182</v>
+      <c r="DY1" s="29" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2002,17 +2011,17 @@
       <c r="DQ2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="DR2" s="33"/>
-      <c r="DS2" s="33"/>
-      <c r="DT2" s="28"/>
-      <c r="DU2" s="28"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="33"/>
-      <c r="DX2" s="33"/>
-      <c r="DY2" s="27"/>
+      <c r="DR2" s="36"/>
+      <c r="DS2" s="36"/>
+      <c r="DT2" s="30"/>
+      <c r="DU2" s="30"/>
+      <c r="DV2" s="36"/>
+      <c r="DW2" s="36"/>
+      <c r="DX2" s="36"/>
+      <c r="DY2" s="29"/>
     </row>
     <row r="3" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2022,16 +2031,16 @@
         <v>172312019</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>221</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>224</v>
       </c>
       <c r="H3" s="6">
         <v>76.266666666666666</v>
@@ -2462,10 +2471,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX3" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="DY3" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,16 +2488,16 @@
         <v>172312021</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>225</v>
+        <v>87</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="H4" s="6">
         <v>76.333333333333329</v>
@@ -2919,10 +2928,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX4" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="DY4" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.25">
@@ -2936,16 +2945,16 @@
         <v>172312022</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>226</v>
+      <c r="F5" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>223</v>
       </c>
       <c r="H5" s="6">
         <v>76.333333333333329</v>
@@ -3376,10 +3385,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX5" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="DY5" s="26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3393,16 +3402,16 @@
         <v>172312023</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>227</v>
+      <c r="F6" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>224</v>
       </c>
       <c r="H6" s="6">
         <v>80.666666666666671</v>
@@ -3833,10 +3842,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX6" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="DY6" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.25">
@@ -3850,16 +3859,16 @@
         <v>172312024</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>260</v>
+        <v>128</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="H7" s="6">
         <v>76.266666666666666</v>
@@ -4290,10 +4299,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX7" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="DY7" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4307,16 +4316,16 @@
         <v>172312025</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>258</v>
+        <v>132</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>255</v>
       </c>
       <c r="H8" s="6">
         <v>76.333333333333329</v>
@@ -4747,10 +4756,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX8" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="DY8" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -4764,16 +4773,16 @@
         <v>172312026</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>228</v>
+        <v>90</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="H9" s="6">
         <v>76.333333333333329</v>
@@ -5204,14 +5213,14 @@
         <v>Excellent</v>
       </c>
       <c r="DX9" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="DY9" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5221,16 +5230,16 @@
         <v>172312027</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>229</v>
+      <c r="F10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="H10" s="6">
         <v>80.2</v>
@@ -5661,10 +5670,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX10" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="DY10" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5678,16 +5687,16 @@
         <v>172312028</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>230</v>
+        <v>93</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>227</v>
       </c>
       <c r="H11" s="6">
         <v>76.333333333333329</v>
@@ -6118,10 +6127,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX11" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="DY11" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.25">
@@ -6135,16 +6144,16 @@
         <v>172312029</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>259</v>
+        <v>130</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="H12" s="6">
         <v>76.333333333333329</v>
@@ -6575,10 +6584,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX12" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="DY12" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.25">
@@ -6592,16 +6601,16 @@
         <v>172312030</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>231</v>
+      <c r="F13" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="H13" s="6">
         <v>80.533333333333331</v>
@@ -7032,14 +7041,14 @@
         <v>Excellent</v>
       </c>
       <c r="DX13" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DY13" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7049,16 +7058,16 @@
         <v>172312031</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>232</v>
+      <c r="F14" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>229</v>
       </c>
       <c r="H14" s="6">
         <v>80</v>
@@ -7489,10 +7498,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX14" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DY14" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7506,16 +7515,16 @@
         <v>172312032</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>233</v>
+        <v>98</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="H15" s="6">
         <v>80.533333333333331</v>
@@ -7946,10 +7955,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX15" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="DY15" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.25">
@@ -7963,16 +7972,16 @@
         <v>172312033</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>234</v>
+      <c r="F16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="H16" s="6">
         <v>80.133333333333326</v>
@@ -8403,14 +8412,14 @@
         <v>Excellent</v>
       </c>
       <c r="DX16" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DY16" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8420,16 +8429,16 @@
         <v>172312034</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>235</v>
+      <c r="F17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="H17" s="6">
         <v>80.26666666666668</v>
@@ -8860,14 +8869,14 @@
         <v>Excellent</v>
       </c>
       <c r="DX17" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="DY17" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="37">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -8877,16 +8886,16 @@
         <v>172312035</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>236</v>
+        <v>103</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>233</v>
       </c>
       <c r="H18" s="6">
         <v>76.333333333333329</v>
@@ -9317,10 +9326,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX18" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="DY18" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.25">
@@ -9334,16 +9343,16 @@
         <v>172312036</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>237</v>
+        <v>105</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="H19" s="6">
         <v>80.26666666666668</v>
@@ -9774,14 +9783,14 @@
         <v>Excellent</v>
       </c>
       <c r="DX19" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="DY19" s="26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="37">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -9791,16 +9800,16 @@
         <v>172312037</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>238</v>
+        <v>106</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="H20" s="6">
         <v>80.333333333333343</v>
@@ -10231,10 +10240,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX20" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DY20" s="26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:129" x14ac:dyDescent="0.25">
@@ -10248,16 +10257,16 @@
         <v>172312038</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>261</v>
+        <v>134</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="H21" s="6">
         <v>76.333333333333329</v>
@@ -10688,10 +10697,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX21" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="DY21" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:129" x14ac:dyDescent="0.25">
@@ -10705,16 +10714,16 @@
         <v>172312039</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>239</v>
+        <v>107</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="H22" s="6">
         <v>76.333333333333329</v>
@@ -11145,10 +11154,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX22" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="DY22" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:129" x14ac:dyDescent="0.25">
@@ -11162,16 +11171,16 @@
         <v>172312040</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>240</v>
+        <v>157</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>237</v>
       </c>
       <c r="H23" s="6">
         <v>80</v>
@@ -11602,10 +11611,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX23" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="DY23" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:129" x14ac:dyDescent="0.25">
@@ -11619,16 +11628,16 @@
         <v>172312041</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>241</v>
+        <v>136</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="H24" s="6">
         <v>76.866666666666674</v>
@@ -12059,10 +12068,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX24" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="DY24" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.25">
@@ -12076,16 +12085,16 @@
         <v>172312042</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>242</v>
+        <v>108</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="H25" s="6">
         <v>76.333333333333329</v>
@@ -12516,10 +12525,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="DX25" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="DY25" s="26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.25">
@@ -12533,16 +12542,16 @@
         <v>172312043</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>243</v>
+        <v>137</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="H26" s="6">
         <v>76.333333333333329</v>
@@ -12973,10 +12982,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX26" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="DY26" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -12990,16 +12999,16 @@
         <v>172312044</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>244</v>
+        <v>109</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="H27" s="6">
         <v>76.333333333333329</v>
@@ -13430,10 +13439,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX27" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="DY27" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -13447,16 +13456,16 @@
         <v>172312045</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>245</v>
+        <v>110</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="H28" s="16">
         <v>76.866666666666674</v>
@@ -13887,10 +13896,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX28" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DY28" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.25">
@@ -13904,16 +13913,16 @@
         <v>172312046</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>246</v>
+        <v>112</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="H29" s="16">
         <v>76.333333333333329</v>
@@ -14344,10 +14353,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX29" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="DY29" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:129" x14ac:dyDescent="0.25">
@@ -14361,16 +14370,16 @@
         <v>172312047</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>247</v>
+        <v>114</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>244</v>
       </c>
       <c r="H30" s="16">
         <v>76.333333333333329</v>
@@ -14801,10 +14810,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX30" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="DY30" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.25">
@@ -14818,16 +14827,16 @@
         <v>172312048</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>248</v>
+        <v>116</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="H31" s="16">
         <v>76.333333333333329</v>
@@ -15258,10 +15267,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX31" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="DY31" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -15275,16 +15284,16 @@
         <v>172312049</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>249</v>
+        <v>117</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>246</v>
       </c>
       <c r="H32" s="16">
         <v>76.333333333333329</v>
@@ -15715,10 +15724,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX32" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="DY32" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:129" x14ac:dyDescent="0.25">
@@ -15732,16 +15741,16 @@
         <v>172312050</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>250</v>
+        <v>118</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="H33" s="16">
         <v>80.133333333333326</v>
@@ -16172,10 +16181,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX33" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="DY33" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -16189,16 +16198,16 @@
         <v>172312051</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>251</v>
+        <v>119</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>248</v>
       </c>
       <c r="H34" s="16">
         <v>76.333333333333329</v>
@@ -16629,10 +16638,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX34" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DY34" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:129" x14ac:dyDescent="0.25">
@@ -16646,16 +16655,16 @@
         <v>172312052</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>252</v>
+        <v>121</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>249</v>
       </c>
       <c r="H35" s="16">
         <v>76.333333333333329</v>
@@ -17086,10 +17095,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX35" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="DY35" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:129" ht="30" x14ac:dyDescent="0.25">
@@ -17103,16 +17112,16 @@
         <v>172312053</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>253</v>
+        <v>122</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="H36" s="16">
         <v>80</v>
@@ -17543,10 +17552,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX36" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="DY36" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.25">
@@ -17560,16 +17569,16 @@
         <v>172312054</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>254</v>
+        <v>124</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="H37" s="16">
         <v>76.333333333333329</v>
@@ -18000,10 +18009,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX37" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="DY37" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.25">
@@ -18017,16 +18026,16 @@
         <v>172312055</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>255</v>
+        <v>125</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>252</v>
       </c>
       <c r="H38" s="16">
         <v>80.333333333333343</v>
@@ -18457,14 +18466,14 @@
         <v>Excellent</v>
       </c>
       <c r="DX38" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="DY38" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -18474,16 +18483,16 @@
         <v>172312057</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>256</v>
+        <v>139</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>253</v>
       </c>
       <c r="H39" s="16">
         <v>76.866666666666674</v>
@@ -18914,10 +18923,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX39" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="DY39" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.25">
@@ -18931,16 +18940,16 @@
         <v>172312058</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>257</v>
+        <v>127</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="H40" s="16">
         <v>80.066666666666663</v>
@@ -19371,10 +19380,10 @@
         <v>Excellent</v>
       </c>
       <c r="DX40" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="DY40" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
+++ b/S1 Keperawatan/RPL/RPL 2/Transkip Nilai RPL2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2B41FC-C447-406D-A0EB-9C92462ACE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C2CEF-321B-4E1A-8052-76CE46ADBA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="21720" windowHeight="12900" xr2:uid="{924E5C93-5AF7-4589-8357-994FD504FD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -1061,22 +1061,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,7 +1073,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,10 +1407,10 @@
   <dimension ref="A1:DY40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DJ45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,32 +1462,32 @@
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="31" t="s">
         <v>79</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
       <c r="R1" s="30" t="s">
         <v>5</v>
       </c>
@@ -1509,13 +1509,13 @@
       <c r="AD1" s="30"/>
       <c r="AE1" s="30"/>
       <c r="AF1" s="30"/>
-      <c r="AG1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
+      <c r="AG1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
       <c r="AL1" s="30" t="s">
         <v>9</v>
       </c>
@@ -1551,20 +1551,20 @@
       <c r="BH1" s="30"/>
       <c r="BI1" s="30"/>
       <c r="BJ1" s="30"/>
-      <c r="BK1" s="31" t="s">
+      <c r="BK1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="32" t="s">
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
       <c r="BU1" s="30" t="s">
         <v>69</v>
       </c>
@@ -1586,13 +1586,13 @@
       <c r="CG1" s="30"/>
       <c r="CH1" s="30"/>
       <c r="CI1" s="30"/>
-      <c r="CJ1" s="31" t="s">
+      <c r="CJ1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="CK1" s="31"/>
-      <c r="CL1" s="31"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="31"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
       <c r="CO1" s="30" t="s">
         <v>73</v>
       </c>
@@ -1632,14 +1632,14 @@
         <v>14</v>
       </c>
       <c r="DO1" s="30"/>
-      <c r="DP1" s="36" t="s">
+      <c r="DP1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="DQ1" s="36"/>
-      <c r="DR1" s="36" t="s">
+      <c r="DQ1" s="32"/>
+      <c r="DR1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="DS1" s="36" t="s">
+      <c r="DS1" s="32" t="s">
         <v>16</v>
       </c>
       <c r="DT1" s="30" t="s">
@@ -1648,16 +1648,16 @@
       <c r="DU1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DV1" s="36" t="s">
+      <c r="DV1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="DW1" s="36" t="s">
+      <c r="DW1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="DX1" s="36" t="s">
+      <c r="DX1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="DY1" s="29" t="s">
+      <c r="DY1" s="36" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1665,9 +1665,9 @@
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="33"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="30"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
@@ -2011,17 +2011,17 @@
       <c r="DQ2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="DR2" s="36"/>
-      <c r="DS2" s="36"/>
+      <c r="DR2" s="32"/>
+      <c r="DS2" s="32"/>
       <c r="DT2" s="30"/>
       <c r="DU2" s="30"/>
-      <c r="DV2" s="36"/>
-      <c r="DW2" s="36"/>
-      <c r="DX2" s="36"/>
-      <c r="DY2" s="29"/>
+      <c r="DV2" s="32"/>
+      <c r="DW2" s="32"/>
+      <c r="DX2" s="32"/>
+      <c r="DY2" s="36"/>
     </row>
     <row r="3" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2457,9 +2457,10 @@
         <v>48</v>
       </c>
       <c r="DT3" s="9">
-        <v>3.7604166666666665</v>
+        <v>3.7604166666666701</v>
       </c>
       <c r="DU3" s="9">
+        <f>DR3/DS3</f>
         <v>3.7604166666666665</v>
       </c>
       <c r="DV3" s="12" t="str">
@@ -5220,7 +5221,7 @@
       </c>
     </row>
     <row r="10" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="29">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7048,7 +7049,7 @@
       </c>
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="29">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8419,7 +8420,7 @@
       </c>
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="29">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8876,7 +8877,7 @@
       </c>
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="29">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -9790,7 +9791,7 @@
       </c>
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="29">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -18473,7 +18474,7 @@
       </c>
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+      <c r="A39" s="29">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -19388,6 +19389,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="DY1:DY2"/>
+    <mergeCell ref="DN1:DO1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="R1:V1"/>
     <mergeCell ref="DI1:DM1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="DV1:DV2"/>
@@ -19404,29 +19428,6 @@
     <mergeCell ref="DT1:DT2"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="DY1:DY2"/>
-    <mergeCell ref="DN1:DO1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
